--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/Github/systempathway/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6D29CE-AC31-5A4F-A74E-3298A166F18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CC5084-CEDA-7D40-A3B1-EFE978987F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="12840" windowWidth="38400" windowHeight="19860" tabRatio="775" activeTab="3" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="6000" yWindow="8520" windowWidth="50180" windowHeight="21880" tabRatio="775" firstSheet="1" activeTab="9" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
     <sheet name="technology_feedstock_pairs" sheetId="6" r:id="rId2"/>
-    <sheet name="fuel_introduction" sheetId="26" r:id="rId3"/>
-    <sheet name="baseline" sheetId="7" r:id="rId4"/>
-    <sheet name="production" sheetId="28" r:id="rId5"/>
-    <sheet name="capex" sheetId="13" r:id="rId6"/>
-    <sheet name="opex" sheetId="14" r:id="rId7"/>
-    <sheet name="renewal" sheetId="15" r:id="rId8"/>
-    <sheet name="technology" sheetId="19" r:id="rId9"/>
-    <sheet name="carbonprice" sheetId="25" r:id="rId10"/>
-    <sheet name="emission" sheetId="23" r:id="rId11"/>
-    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId12"/>
+    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId3"/>
+    <sheet name="fuel_introduction" sheetId="26" r:id="rId4"/>
+    <sheet name="baseline" sheetId="7" r:id="rId5"/>
+    <sheet name="production" sheetId="28" r:id="rId6"/>
+    <sheet name="capex" sheetId="13" r:id="rId7"/>
+    <sheet name="opex" sheetId="14" r:id="rId8"/>
+    <sheet name="renewal" sheetId="15" r:id="rId9"/>
+    <sheet name="technology" sheetId="19" r:id="rId10"/>
+    <sheet name="carbonprice" sheetId="25" r:id="rId11"/>
+    <sheet name="emission" sheetId="23" r:id="rId12"/>
     <sheet name="fuel_cost" sheetId="8" r:id="rId13"/>
     <sheet name="fuel_intensity" sheetId="16" r:id="rId14"/>
     <sheet name="fuel_emission" sheetId="10" r:id="rId15"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="88">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>production</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>replace, renew, continue</t>
+  </si>
+  <si>
+    <t>renew, continue</t>
   </si>
 </sst>
 </file>
@@ -1043,6 +1052,98 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2030</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2051</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074F1A1-9C61-4352-AF1E-453C90E48727}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
@@ -1225,7 +1326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
@@ -1413,298 +1514,6 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G3" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2030</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2030</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -8728,7 +8537,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9770,6 +9579,298 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2030</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2030</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A811D9-2602-4FD1-8BF7-F55E2D4AA43D}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -9910,11 +10011,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -10042,7 +10143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF08FAA-2FE8-334E-925F-993A56983EE6}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
@@ -10450,7 +10551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
@@ -10991,7 +11092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -11478,7 +11579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18CEE6-4CB2-4E28-86E1-E84E657A73A8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -11938,81 +12039,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>2051</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/Github/systempathway/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CC5084-CEDA-7D40-A3B1-EFE978987F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191A49C-15BD-D348-A979-0C2D5932D433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="8520" windowWidth="50180" windowHeight="21880" tabRatio="775" firstSheet="1" activeTab="9" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="12540" yWindow="4740" windowWidth="50180" windowHeight="21880" tabRatio="775" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="88">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -332,13 +332,7 @@
     <t>Coal_BX, BF gas_BX, BOF gas_BX, Natural gas_BX</t>
   </si>
   <si>
-    <t>0.83, 0.09, 0.01, 0.06</t>
-  </si>
-  <si>
     <t>Coal_BB, BF gas_BB, COG_BB, BOF gas_BB</t>
-  </si>
-  <si>
-    <t>0.87, 0.07, 0.04, 0.01</t>
   </si>
   <si>
     <t>production</t>
@@ -352,6 +346,12 @@
   <si>
     <t>renew, continue</t>
   </si>
+  <si>
+    <t>0.83, 0.09, 0.01, 0.07</t>
+  </si>
+  <si>
+    <t>0.87, 0.07, 0.05, 0.01</t>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +362,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,12 +452,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -509,7 +503,7 @@
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,14 +558,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1055,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1077,7 +1070,7 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1091,7 +1084,7 @@
         <v>2020</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1105,7 +1098,7 @@
         <v>2020</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,7 +1112,7 @@
         <v>2030</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1133,7 +1126,7 @@
         <v>2051</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1330,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1433,82 +1426,106 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23">
-        <v>70000000</v>
-      </c>
-      <c r="C2" s="23">
-        <v>68600000</v>
-      </c>
-      <c r="D2" s="23">
-        <v>67200000</v>
-      </c>
-      <c r="E2" s="23">
-        <v>65799999.999999993</v>
-      </c>
-      <c r="F2" s="23">
-        <v>64400000</v>
-      </c>
-      <c r="G2" s="23">
-        <v>63000000</v>
-      </c>
-      <c r="H2" s="23">
-        <v>60200000</v>
-      </c>
-      <c r="I2" s="23">
-        <v>57400000.000000007</v>
-      </c>
-      <c r="J2" s="23">
-        <v>54600000</v>
-      </c>
-      <c r="K2" s="23">
-        <v>51800000</v>
-      </c>
-      <c r="L2" s="23">
-        <v>49000000</v>
-      </c>
-      <c r="M2" s="23">
-        <v>46199999.999999993</v>
-      </c>
-      <c r="N2" s="23">
-        <v>43400000</v>
-      </c>
-      <c r="O2" s="23">
-        <v>40600000</v>
-      </c>
-      <c r="P2" s="23">
-        <v>37799999.999999993</v>
-      </c>
-      <c r="Q2" s="23">
-        <v>34999999.999999993</v>
-      </c>
-      <c r="R2" s="23">
-        <v>31499999.999999996</v>
-      </c>
-      <c r="S2" s="23">
-        <v>27999999.999999993</v>
-      </c>
-      <c r="T2" s="23">
-        <v>24499999.999999996</v>
-      </c>
-      <c r="U2" s="23">
-        <v>20999999.999999996</v>
-      </c>
-      <c r="V2" s="23">
-        <v>17499999.999999996</v>
-      </c>
-      <c r="W2" s="23">
-        <v>13999999.999999993</v>
-      </c>
-      <c r="X2" s="23">
-        <v>10499999.999999994</v>
-      </c>
-      <c r="Y2" s="23">
-        <v>6999999.9999999944</v>
-      </c>
-      <c r="Z2" s="23">
-        <v>3499999.9999999953</v>
-      </c>
-      <c r="AA2" s="23">
+      <c r="B2" s="22">
+        <v>72000000</v>
+      </c>
+      <c r="C2" s="22">
+        <f>B2</f>
+        <v>72000000</v>
+      </c>
+      <c r="D2" s="22">
+        <f t="shared" ref="D2:F2" si="0">C2</f>
+        <v>72000000</v>
+      </c>
+      <c r="E2" s="22">
+        <f t="shared" si="0"/>
+        <v>72000000</v>
+      </c>
+      <c r="F2" s="22">
+        <f t="shared" si="0"/>
+        <v>72000000</v>
+      </c>
+      <c r="G2" s="22">
+        <f>B2*0.9</f>
+        <v>64800000</v>
+      </c>
+      <c r="H2" s="22">
+        <f>G2</f>
+        <v>64800000</v>
+      </c>
+      <c r="I2" s="22">
+        <f t="shared" ref="I2:P2" si="1">H2</f>
+        <v>64800000</v>
+      </c>
+      <c r="J2" s="22">
+        <f t="shared" si="1"/>
+        <v>64800000</v>
+      </c>
+      <c r="K2" s="22">
+        <f t="shared" si="1"/>
+        <v>64800000</v>
+      </c>
+      <c r="L2" s="22">
+        <f t="shared" si="1"/>
+        <v>64800000</v>
+      </c>
+      <c r="M2" s="22">
+        <f t="shared" si="1"/>
+        <v>64800000</v>
+      </c>
+      <c r="N2" s="22">
+        <f t="shared" si="1"/>
+        <v>64800000</v>
+      </c>
+      <c r="O2" s="22">
+        <f t="shared" si="1"/>
+        <v>64800000</v>
+      </c>
+      <c r="P2" s="22">
+        <f t="shared" si="1"/>
+        <v>64800000</v>
+      </c>
+      <c r="Q2" s="22">
+        <f>B2*0.5</f>
+        <v>36000000</v>
+      </c>
+      <c r="R2" s="22">
+        <f>Q2</f>
+        <v>36000000</v>
+      </c>
+      <c r="S2" s="22">
+        <f t="shared" ref="S2:Z2" si="2">R2</f>
+        <v>36000000</v>
+      </c>
+      <c r="T2" s="22">
+        <f t="shared" si="2"/>
+        <v>36000000</v>
+      </c>
+      <c r="U2" s="22">
+        <f t="shared" si="2"/>
+        <v>36000000</v>
+      </c>
+      <c r="V2" s="22">
+        <f t="shared" si="2"/>
+        <v>36000000</v>
+      </c>
+      <c r="W2" s="22">
+        <f t="shared" si="2"/>
+        <v>36000000</v>
+      </c>
+      <c r="X2" s="22">
+        <f t="shared" si="2"/>
+        <v>36000000</v>
+      </c>
+      <c r="Y2" s="22">
+        <f t="shared" si="2"/>
+        <v>36000000</v>
+      </c>
+      <c r="Z2" s="22">
+        <f t="shared" si="2"/>
+        <v>36000000</v>
+      </c>
+      <c r="AA2" s="22">
         <v>0</v>
       </c>
     </row>
@@ -8537,7 +8554,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9583,7 +9600,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="122" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9745,7 +9762,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="13">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -9875,7 +9892,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10013,10 +10030,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10052,7 +10069,7 @@
         <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
@@ -10066,10 +10083,10 @@
         <v>65</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>49</v>
@@ -10080,7 +10097,7 @@
       <c r="G2" s="10">
         <v>4128000</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="5">
         <v>2017</v>
       </c>
     </row>
@@ -10092,10 +10109,10 @@
         <v>65</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>49</v>
@@ -10106,35 +10123,298 @@
       <c r="G3" s="10">
         <v>4000000</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="5">
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="H10" s="26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="H11" s="26">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="H12" s="26">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D14" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F14" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27">
-        <v>2028</v>
-      </c>
+      <c r="G14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="H14" s="26">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10145,10 +10425,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF08FAA-2FE8-334E-925F-993A56983EE6}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A13" sqref="A13:AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10255,89 +10535,68 @@
       <c r="F2" s="10">
         <v>4128000</v>
       </c>
-      <c r="G2">
-        <f>F2*0.9</f>
-        <v>3715200</v>
-      </c>
-      <c r="H2">
-        <f>G2</f>
-        <v>3715200</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:Q2" si="0">H2</f>
-        <v>3715200</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>3715200</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>3715200</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>3715200</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>3715200</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>3715200</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>3715200</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>3715200</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>3715200</v>
-      </c>
-      <c r="R2">
-        <f>Q2*0.5</f>
-        <v>1857600</v>
-      </c>
-      <c r="S2">
-        <f>R2</f>
-        <v>1857600</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:AA2" si="1">S2</f>
-        <v>1857600</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="1"/>
-        <v>1857600</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="1"/>
-        <v>1857600</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="1"/>
-        <v>1857600</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="1"/>
-        <v>1857600</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="1"/>
-        <v>1857600</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="1"/>
-        <v>1857600</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="1"/>
-        <v>1857600</v>
+      <c r="G2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="I2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="J2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="K2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="L2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="M2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="N2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="O2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="P2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="R2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="S2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="T2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="U2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="V2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="W2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="X2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>4128000</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>4128000</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -10359,191 +10618,981 @@
       <c r="F3" s="10">
         <v>4000000</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G4" si="2">F3*0.9</f>
-        <v>3600000</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:Q4" si="3">G3</f>
-        <v>3600000</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="3"/>
-        <v>3600000</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="3"/>
-        <v>3600000</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="3"/>
-        <v>3600000</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="3"/>
-        <v>3600000</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="3"/>
-        <v>3600000</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="3"/>
-        <v>3600000</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="3"/>
-        <v>3600000</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="3"/>
-        <v>3600000</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="3"/>
-        <v>3600000</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R4" si="4">Q3*0.5</f>
-        <v>1800000</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S4" si="5">R3</f>
-        <v>1800000</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:AA3" si="6">S3</f>
-        <v>1800000</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="6"/>
-        <v>1800000</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="6"/>
-        <v>1800000</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="6"/>
-        <v>1800000</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="6"/>
-        <v>1800000</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="6"/>
-        <v>1800000</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="6"/>
-        <v>1800000</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="6"/>
-        <v>1800000</v>
+      <c r="G3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="I3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="J3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="K3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="L3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="M3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="N3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="O3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="P3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="R3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="S3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="T3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="U3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="V3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="W3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="X3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>4000000</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="I4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="J4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="K4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="L4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="M4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="N4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="O4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="P4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="R4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="S4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="T4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="U4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="V4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="X4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>3804000</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>3804000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="I5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="J5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="K5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="L5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="M5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="N5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="O5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="P5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="R5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="S5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="T5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="U5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="V5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="W5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="X5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>3239000</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>3239000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="G6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="H6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="I6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="J6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="K6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="L6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="M6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="N6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="O6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="P6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="R6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="S6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="T6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="U6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="V6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="W6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="X6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>4722000</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>4722000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="G7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="H7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="I7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="J7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="K7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="L7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="M7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="N7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="O7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="P7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="R7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="S7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="T7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="U7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="V7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="W7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="X7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>4237000</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>4237000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="H8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="I8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="J8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="K8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="L8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="M8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="N8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="O8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="P8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="R8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="S8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="T8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="U8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="V8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="W8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="X8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="G9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="I9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="J9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="K9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="L9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="M9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="N9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="O9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="P9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="R9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="S9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="T9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="U9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="V9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="W9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="X9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>3624000</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>3624000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="C10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="D10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="E10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="F10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="G10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="H10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="I10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="J10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="K10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="L10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="M10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="N10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="O10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="P10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="R10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="S10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="T10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="U10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="V10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="W10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="X10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="Z10" s="25">
+        <v>4127000</v>
+      </c>
+      <c r="AA10" s="25">
+        <v>4127000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="C11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="D11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="E11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="F11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="G11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="H11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="I11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="J11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="K11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="L11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="M11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="N11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="O11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="P11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="R11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="S11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="T11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="U11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="V11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="W11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="X11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>4000000</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="C12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="I12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="J12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="K12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="L12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="M12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="N12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="O12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="P12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="R12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="S12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="T12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="U12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="V12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="W12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="X12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>1914000</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>1914000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="K13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="L13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="N13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="P13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="R13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="S13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="T13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="U13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="V13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="W13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="X13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>1683000</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>1683000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="26">
-        <v>0</v>
-      </c>
-      <c r="C4" s="26">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
-        <v>1500000</v>
-      </c>
-      <c r="F4" s="26">
-        <v>1500000</v>
-      </c>
-      <c r="G4" s="26">
-        <v>1500000</v>
-      </c>
-      <c r="H4" s="26">
-        <v>1500000</v>
-      </c>
-      <c r="I4">
-        <f>H4*2</f>
-        <v>3000000</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="3"/>
-        <v>3000000</v>
-      </c>
-      <c r="R4">
-        <f>Q4*2</f>
-        <v>6000000</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="5"/>
-        <v>6000000</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ref="T4:AA4" si="7">S4</f>
-        <v>6000000</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="7"/>
-        <v>6000000</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="7"/>
-        <v>6000000</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="7"/>
-        <v>6000000</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="7"/>
-        <v>6000000</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="7"/>
-        <v>6000000</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="7"/>
-        <v>6000000</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="7"/>
-        <v>6000000</v>
+      <c r="B14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="I14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="J14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="K14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="L14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="M14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="N14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="O14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="P14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="R14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="S14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="T14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="U14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="V14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="W14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="X14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="Y14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="Z14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="AA14" s="25">
+        <v>1280000</v>
       </c>
     </row>
   </sheetData>

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/Github/systempathway/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9191A49C-15BD-D348-A979-0C2D5932D433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE6D98-804F-6F43-82C1-F13C0579BE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="4740" windowWidth="50180" windowHeight="21880" tabRatio="775" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="12540" yWindow="4740" windowWidth="50180" windowHeight="21880" tabRatio="775" activeTab="4" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1109,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -1123,7 +1123,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>2051</v>
+        <v>2020</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -1323,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10032,8 +10032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10381,10 +10381,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="10">
-        <v>1683000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>2010</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10407,10 +10407,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="25">
-        <v>1280000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="26">
-        <v>2010</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
@@ -10428,7 +10428,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:AA13"/>
+      <selection activeCell="A13" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11434,19 +11434,19 @@
         <v>42</v>
       </c>
       <c r="B13" s="10">
-        <v>1683000</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10">
-        <v>1683000</v>
+        <v>0</v>
       </c>
       <c r="D13" s="10">
-        <v>1683000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10">
-        <v>1683000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="10">
-        <v>1683000</v>
+        <v>0</v>
       </c>
       <c r="G13" s="10">
         <v>1683000</v>
@@ -11516,35 +11516,35 @@
       <c r="A14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="25">
-        <v>1280000</v>
-      </c>
-      <c r="C14" s="25">
-        <v>1280000</v>
-      </c>
-      <c r="D14" s="25">
-        <v>1280000</v>
-      </c>
-      <c r="E14" s="25">
-        <v>1280000</v>
-      </c>
-      <c r="F14" s="25">
-        <v>1280000</v>
-      </c>
-      <c r="G14" s="25">
-        <v>1280000</v>
-      </c>
-      <c r="H14" s="25">
-        <v>1280000</v>
-      </c>
-      <c r="I14" s="25">
-        <v>1280000</v>
-      </c>
-      <c r="J14" s="25">
-        <v>1280000</v>
-      </c>
-      <c r="K14" s="25">
-        <v>1280000</v>
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
       </c>
       <c r="L14" s="25">
         <v>1280000</v>
@@ -11597,6 +11597,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/Github/systempathway/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBE6D98-804F-6F43-82C1-F13C0579BE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8BE3C5-2154-E24E-9632-54F09232B386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="4740" windowWidth="50180" windowHeight="21880" tabRatio="775" activeTab="4" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="12540" yWindow="4740" windowWidth="50180" windowHeight="21880" tabRatio="775" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -1323,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1427,106 +1427,107 @@
         <v>22</v>
       </c>
       <c r="B2" s="22">
-        <v>72000000</v>
+        <v>80000000</v>
       </c>
       <c r="C2" s="22">
         <f>B2</f>
-        <v>72000000</v>
+        <v>80000000</v>
       </c>
       <c r="D2" s="22">
         <f t="shared" ref="D2:F2" si="0">C2</f>
-        <v>72000000</v>
+        <v>80000000</v>
       </c>
       <c r="E2" s="22">
         <f t="shared" si="0"/>
-        <v>72000000</v>
+        <v>80000000</v>
       </c>
       <c r="F2" s="22">
         <f t="shared" si="0"/>
-        <v>72000000</v>
+        <v>80000000</v>
       </c>
       <c r="G2" s="22">
         <f>B2*0.9</f>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="H2" s="22">
         <f>G2</f>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="I2" s="22">
         <f t="shared" ref="I2:P2" si="1">H2</f>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="J2" s="22">
         <f t="shared" si="1"/>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="K2" s="22">
         <f t="shared" si="1"/>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="L2" s="22">
         <f t="shared" si="1"/>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="M2" s="22">
         <f t="shared" si="1"/>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="N2" s="22">
         <f t="shared" si="1"/>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="O2" s="22">
         <f t="shared" si="1"/>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="P2" s="22">
         <f t="shared" si="1"/>
-        <v>64800000</v>
+        <v>72000000</v>
       </c>
       <c r="Q2" s="22">
         <f>B2*0.5</f>
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="R2" s="22">
         <f>Q2</f>
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="S2" s="22">
-        <f t="shared" ref="S2:Z2" si="2">R2</f>
-        <v>36000000</v>
+        <f t="shared" ref="S2:AA2" si="2">R2</f>
+        <v>40000000</v>
       </c>
       <c r="T2" s="22">
         <f t="shared" si="2"/>
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="U2" s="22">
         <f t="shared" si="2"/>
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="V2" s="22">
         <f t="shared" si="2"/>
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="W2" s="22">
         <f t="shared" si="2"/>
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="X2" s="22">
         <f t="shared" si="2"/>
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="Y2" s="22">
         <f t="shared" si="2"/>
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="Z2" s="22">
         <f t="shared" si="2"/>
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="AA2" s="22">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>40000000</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -10032,14 +10033,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="90.5" customWidth="1"/>
     <col min="4" max="4" width="58.1640625" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
@@ -10428,7 +10429,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A4:XFD13"/>
+      <selection activeCell="L14" sqref="G14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/Github/systempathway/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8BE3C5-2154-E24E-9632-54F09232B386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D355AAD9-5B37-394A-B181-DF93AC3C4A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="4740" windowWidth="50180" windowHeight="21880" tabRatio="775" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="3880" yWindow="11380" windowWidth="50180" windowHeight="21880" tabRatio="775" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="93">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -351,6 +351,21 @@
   </si>
   <si>
     <t>0.87, 0.07, 0.05, 0.01</t>
+  </si>
+  <si>
+    <t>EAF1</t>
+  </si>
+  <si>
+    <t>EAF2</t>
+  </si>
+  <si>
+    <t>EAF3</t>
+  </si>
+  <si>
+    <t>Scrap_EAF, HBI_EAF</t>
+  </si>
+  <si>
+    <t>0.5, 0.5</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1339,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="B2" sqref="B2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1430,104 +1445,79 @@
         <v>80000000</v>
       </c>
       <c r="C2" s="22">
-        <f>B2</f>
-        <v>80000000</v>
+        <v>78400000</v>
       </c>
       <c r="D2" s="22">
-        <f t="shared" ref="D2:F2" si="0">C2</f>
-        <v>80000000</v>
+        <v>76800000</v>
       </c>
       <c r="E2" s="22">
-        <f t="shared" si="0"/>
-        <v>80000000</v>
+        <v>75200000</v>
       </c>
       <c r="F2" s="22">
-        <f t="shared" si="0"/>
-        <v>80000000</v>
+        <v>73600000</v>
       </c>
       <c r="G2" s="22">
-        <f>B2*0.9</f>
         <v>72000000</v>
       </c>
       <c r="H2" s="22">
-        <f>G2</f>
-        <v>72000000</v>
+        <v>68800000</v>
       </c>
       <c r="I2" s="22">
-        <f t="shared" ref="I2:P2" si="1">H2</f>
-        <v>72000000</v>
+        <v>65600000</v>
       </c>
       <c r="J2" s="22">
-        <f t="shared" si="1"/>
-        <v>72000000</v>
+        <v>62400000</v>
       </c>
       <c r="K2" s="22">
-        <f t="shared" si="1"/>
-        <v>72000000</v>
+        <v>59200000</v>
       </c>
       <c r="L2" s="22">
-        <f t="shared" si="1"/>
-        <v>72000000</v>
+        <v>56000000</v>
       </c>
       <c r="M2" s="22">
-        <f t="shared" si="1"/>
-        <v>72000000</v>
+        <v>52800000</v>
       </c>
       <c r="N2" s="22">
-        <f t="shared" si="1"/>
-        <v>72000000</v>
+        <v>49600000</v>
       </c>
       <c r="O2" s="22">
-        <f t="shared" si="1"/>
-        <v>72000000</v>
+        <v>46400000</v>
       </c>
       <c r="P2" s="22">
-        <f t="shared" si="1"/>
-        <v>72000000</v>
+        <v>43200000</v>
       </c>
       <c r="Q2" s="22">
-        <f>B2*0.5</f>
-        <v>40000000</v>
+        <v>40000000.000000007</v>
       </c>
       <c r="R2" s="22">
-        <f>Q2</f>
-        <v>40000000</v>
+        <v>36000000</v>
       </c>
       <c r="S2" s="22">
-        <f t="shared" ref="S2:AA2" si="2">R2</f>
-        <v>40000000</v>
+        <v>32000000</v>
       </c>
       <c r="T2" s="22">
-        <f t="shared" si="2"/>
-        <v>40000000</v>
+        <v>28000000</v>
       </c>
       <c r="U2" s="22">
-        <f t="shared" si="2"/>
-        <v>40000000</v>
+        <v>24000000.000000004</v>
       </c>
       <c r="V2" s="22">
-        <f t="shared" si="2"/>
-        <v>40000000</v>
+        <v>20000000.000000004</v>
       </c>
       <c r="W2" s="22">
-        <f t="shared" si="2"/>
-        <v>40000000</v>
+        <v>16000000.000000004</v>
       </c>
       <c r="X2" s="22">
-        <f t="shared" si="2"/>
-        <v>40000000</v>
+        <v>12000000.000000004</v>
       </c>
       <c r="Y2" s="22">
-        <f t="shared" si="2"/>
-        <v>40000000</v>
+        <v>8000000.0000000075</v>
       </c>
       <c r="Z2" s="22">
-        <f t="shared" si="2"/>
-        <v>40000000</v>
+        <v>4000000.0000000075</v>
       </c>
       <c r="AA2" s="22">
-        <f t="shared" si="2"/>
-        <v>40000000</v>
+        <v>7.4505805969238281E-9</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -2860,7 +2850,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10034,7 +10024,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10382,10 +10372,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="10">
-        <v>0</v>
+        <v>1683000</v>
       </c>
       <c r="H13" s="5">
-        <v>2030</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10408,14 +10398,89 @@
         <v>1</v>
       </c>
       <c r="G14" s="25">
-        <v>0</v>
+        <v>1280000</v>
       </c>
       <c r="H14" s="26">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="11"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>2030</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10426,10 +10491,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF08FAA-2FE8-334E-925F-993A56983EE6}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="G14:L14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11435,19 +11500,19 @@
         <v>42</v>
       </c>
       <c r="B13" s="10">
-        <v>0</v>
+        <v>1683000</v>
       </c>
       <c r="C13" s="10">
-        <v>0</v>
+        <v>1683000</v>
       </c>
       <c r="D13" s="10">
-        <v>0</v>
+        <v>1683000</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>1683000</v>
       </c>
       <c r="F13" s="10">
-        <v>0</v>
+        <v>1683000</v>
       </c>
       <c r="G13" s="10">
         <v>1683000</v>
@@ -11517,35 +11582,35 @@
       <c r="A14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
+      <c r="B14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="I14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="J14" s="25">
+        <v>1280000</v>
+      </c>
+      <c r="K14" s="25">
+        <v>1280000</v>
       </c>
       <c r="L14" s="25">
         <v>1280000</v>
@@ -11594,6 +11659,255 @@
       </c>
       <c r="AA14" s="25">
         <v>1280000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="D15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="E15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="G15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="H15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="I15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="J15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="K15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="L15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="M15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="N15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="O15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="P15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="R15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="S15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="T15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="U15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="V15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="W15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="X15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="Z15" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="AA15" s="25">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="25">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="E16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="G16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="H16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="I16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="J16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="K16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="L16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="M16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="N16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="O16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="P16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="R16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="S16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="T16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="U16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="V16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="W16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="X16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="Y16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="Z16" s="25">
+        <v>2500000</v>
+      </c>
+      <c r="AA16" s="25">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="H17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="I17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="J17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="K17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="L17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="M17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="N17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="O17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="P17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="R17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="S17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="T17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="U17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="V17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="W17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="X17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="Z17" s="25">
+        <v>1500000</v>
+      </c>
+      <c r="AA17" s="25">
+        <v>1500000</v>
       </c>
     </row>
   </sheetData>
@@ -11607,7 +11921,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11888,64 +12202,84 @@
         <v>1100000</v>
       </c>
       <c r="H4" s="16">
-        <v>1100000</v>
+        <f>G4*0.98</f>
+        <v>1078000</v>
       </c>
       <c r="I4" s="16">
-        <v>1100000</v>
+        <f t="shared" ref="I4:AA4" si="0">H4*0.98</f>
+        <v>1056440</v>
       </c>
       <c r="J4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>1035311.2</v>
       </c>
       <c r="K4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>1014604.9759999999</v>
       </c>
       <c r="L4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>994312.87647999986</v>
       </c>
       <c r="M4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>974426.6189503998</v>
       </c>
       <c r="N4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>954938.08657139179</v>
       </c>
       <c r="O4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>935839.32483996393</v>
       </c>
       <c r="P4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>917122.5383431646</v>
       </c>
       <c r="Q4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>898780.0875763013</v>
       </c>
       <c r="R4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>880804.4858247753</v>
       </c>
       <c r="S4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>863188.39610827982</v>
       </c>
       <c r="T4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>845924.62818611425</v>
       </c>
       <c r="U4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>829006.13562239194</v>
       </c>
       <c r="V4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>812426.01290994405</v>
       </c>
       <c r="W4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>796177.49265174521</v>
       </c>
       <c r="X4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>780253.94279871031</v>
       </c>
       <c r="Y4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>764648.86394273606</v>
       </c>
       <c r="Z4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>749355.88666388136</v>
       </c>
       <c r="AA4" s="16">
-        <v>1100000</v>
+        <f t="shared" si="0"/>
+        <v>734368.76893060375</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -12148,7 +12482,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12244,82 +12578,108 @@
         <v>65</v>
       </c>
       <c r="B2" s="16">
-        <v>177308.78</v>
+        <f>capex!B2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="C2" s="16">
-        <v>177308.78</v>
+        <f>capex!C2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="D2" s="16">
-        <v>177308.78</v>
+        <f>capex!D2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="E2" s="16">
-        <v>177308.78</v>
+        <f>capex!E2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="F2" s="16">
-        <v>177308.78</v>
+        <f>capex!F2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="G2" s="16">
-        <v>177308.78</v>
+        <f>capex!G2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="H2" s="16">
-        <v>177308.78</v>
+        <f>capex!H2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="I2" s="16">
-        <v>177308.78</v>
+        <f>capex!I2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="J2" s="16">
-        <v>177308.78</v>
+        <f>capex!J2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="K2" s="16">
-        <v>177308.78</v>
+        <f>capex!K2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="L2" s="16">
-        <v>177308.78</v>
+        <f>capex!L2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="M2" s="16">
-        <v>177308.78</v>
+        <f>capex!M2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="N2" s="16">
-        <v>177308.78</v>
+        <f>capex!N2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="O2" s="16">
-        <v>177308.78</v>
+        <f>capex!O2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="P2" s="16">
-        <v>177308.78</v>
+        <f>capex!P2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="Q2" s="16">
-        <v>177308.78</v>
+        <f>capex!Q2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="R2" s="16">
-        <v>177308.78</v>
+        <f>capex!R2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="S2" s="16">
-        <v>177308.78</v>
+        <f>capex!S2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="T2" s="16">
-        <v>177308.78</v>
+        <f>capex!T2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="U2" s="16">
-        <v>177308.78</v>
+        <f>capex!U2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="V2" s="16">
-        <v>177308.78</v>
+        <f>capex!V2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="W2" s="16">
-        <v>177308.78</v>
+        <f>capex!W2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="X2" s="16">
-        <v>177308.78</v>
+        <f>capex!X2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="Y2" s="16">
-        <v>177308.78</v>
+        <f>capex!Y2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="Z2" s="16">
-        <v>177308.78</v>
+        <f>capex!Z2*0.5</f>
+        <v>250350</v>
       </c>
       <c r="AA2" s="16">
-        <v>177308.78</v>
+        <f>capex!AA2*0.5</f>
+        <v>250350</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -12327,108 +12687,108 @@
         <v>66</v>
       </c>
       <c r="B3" s="16">
-        <f>B2*0.85</f>
-        <v>150712.46299999999</v>
+        <f>capex!B3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="C3" s="16">
-        <f t="shared" ref="C3:AA3" si="0">C2*0.85</f>
-        <v>150712.46299999999</v>
+        <f>capex!C3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="D3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!D3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="E3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!E3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="F3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!F3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="G3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!G3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="H3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!H3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!I3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="J3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!J3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="K3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!K3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="L3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!L3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="M3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!M3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="N3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!N3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="O3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!O3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="P3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!P3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="Q3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!Q3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="R3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!R3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="S3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!S3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="T3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!T3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="U3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!U3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="V3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!V3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="W3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!W3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="X3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!X3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="Y3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!Y3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="Z3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!Z3*0.5</f>
+        <v>212797.5</v>
       </c>
       <c r="AA3" s="16">
-        <f t="shared" si="0"/>
-        <v>150712.46299999999</v>
+        <f>capex!AA3*0.5</f>
+        <v>212797.5</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -12436,108 +12796,108 @@
         <v>72</v>
       </c>
       <c r="B4" s="16">
-        <f>B2*2</f>
-        <v>354617.56</v>
+        <f>capex!B4*0.5</f>
+        <v>550000</v>
       </c>
       <c r="C4" s="16">
-        <f t="shared" ref="C4:AA4" si="1">C2*2</f>
-        <v>354617.56</v>
+        <f>capex!C4*0.5</f>
+        <v>550000</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!D4*0.5</f>
+        <v>550000</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!E4*0.5</f>
+        <v>550000</v>
       </c>
       <c r="F4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!F4*0.5</f>
+        <v>550000</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!G4*0.5</f>
+        <v>550000</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!H4*0.5</f>
+        <v>539000</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!I4*0.5</f>
+        <v>528220</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!J4*0.5</f>
+        <v>517655.6</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!K4*0.5</f>
+        <v>507302.48799999995</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!L4*0.5</f>
+        <v>497156.43823999993</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!M4*0.5</f>
+        <v>487213.3094751999</v>
       </c>
       <c r="N4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!N4*0.5</f>
+        <v>477469.04328569589</v>
       </c>
       <c r="O4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!O4*0.5</f>
+        <v>467919.66241998196</v>
       </c>
       <c r="P4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!P4*0.5</f>
+        <v>458561.2691715823</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!Q4*0.5</f>
+        <v>449390.04378815065</v>
       </c>
       <c r="R4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!R4*0.5</f>
+        <v>440402.24291238765</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!S4*0.5</f>
+        <v>431594.19805413991</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!T4*0.5</f>
+        <v>422962.31409305712</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!U4*0.5</f>
+        <v>414503.06781119597</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!V4*0.5</f>
+        <v>406213.00645497203</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!W4*0.5</f>
+        <v>398088.74632587261</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!X4*0.5</f>
+        <v>390126.97139935516</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!Y4*0.5</f>
+        <v>382324.43197136803</v>
       </c>
       <c r="Z4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!Z4*0.5</f>
+        <v>374677.94333194068</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" si="1"/>
-        <v>354617.56</v>
+        <f>capex!AA4*0.5</f>
+        <v>367184.38446530188</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -12545,82 +12905,108 @@
         <v>44</v>
       </c>
       <c r="B5" s="16">
-        <v>86076.23</v>
+        <f>capex!B5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="C5" s="16">
-        <v>86076.23</v>
+        <f>capex!C5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="D5" s="16">
-        <v>86076.23</v>
+        <f>capex!D5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="E5" s="16">
-        <v>86076.23</v>
+        <f>capex!E5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="F5" s="16">
-        <v>86076.23</v>
+        <f>capex!F5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="G5" s="16">
-        <v>86076.23</v>
+        <f>capex!G5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="H5" s="16">
-        <v>86076.23</v>
+        <f>capex!H5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="I5" s="16">
-        <v>86076.23</v>
+        <f>capex!I5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="J5" s="16">
-        <v>86076.23</v>
+        <f>capex!J5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="K5" s="16">
-        <v>86076.23</v>
+        <f>capex!K5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="L5" s="16">
-        <v>86076.23</v>
+        <f>capex!L5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="M5" s="16">
-        <v>86076.23</v>
+        <f>capex!M5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="N5" s="16">
-        <v>86076.23</v>
+        <f>capex!N5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="O5" s="16">
-        <v>86076.23</v>
+        <f>capex!O5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="P5" s="16">
-        <v>86076.23</v>
+        <f>capex!P5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="Q5" s="16">
-        <v>86076.23</v>
+        <f>capex!Q5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="R5" s="16">
-        <v>86076.23</v>
+        <f>capex!R5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="S5" s="16">
-        <v>86076.23</v>
+        <f>capex!S5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="T5" s="16">
-        <v>86076.23</v>
+        <f>capex!T5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="U5" s="16">
-        <v>86076.23</v>
+        <f>capex!U5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="V5" s="16">
-        <v>86076.23</v>
+        <f>capex!V5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="W5" s="16">
-        <v>86076.23</v>
+        <f>capex!W5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="X5" s="16">
-        <v>86076.23</v>
+        <f>capex!X5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="Y5" s="16">
-        <v>86076.23</v>
+        <f>capex!Y5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="Z5" s="16">
-        <v>86076.23</v>
+        <f>capex!Z5*0.5</f>
+        <v>200000</v>
       </c>
       <c r="AA5" s="16">
-        <v>86076.23</v>
+        <f>capex!AA5*0.5</f>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyun/Github/systempathway/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D355AAD9-5B37-394A-B181-DF93AC3C4A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8A45D-A6B4-C14E-9A02-626494C37108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="11380" windowWidth="50180" windowHeight="21880" tabRatio="775" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="94">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -367,6 +367,9 @@
   <si>
     <t>0.5, 0.5</t>
   </si>
+  <si>
+    <t>max_count</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +521,7 @@
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,6 +583,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1061,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1072,9 +1084,11 @@
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1087,8 +1101,11 @@
       <c r="D1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
@@ -1101,8 +1118,11 @@
       <c r="D2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1115,8 +1135,11 @@
       <c r="D3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1129,8 +1152,11 @@
       <c r="D4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1142,6 +1168,9 @@
       </c>
       <c r="D5" t="s">
         <v>84</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1338,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4119,7 +4148,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8545,7 +8574,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9591,7 +9620,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="122" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10024,19 +10053,19 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="90.5" customWidth="1"/>
-    <col min="4" max="4" width="58.1640625" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10076,13 +10105,13 @@
       <c r="C2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="10">
@@ -10102,13 +10131,13 @@
       <c r="C3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G3" s="10">
@@ -10128,13 +10157,13 @@
       <c r="C4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G4" s="10">
@@ -10154,13 +10183,13 @@
       <c r="C5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="10">
@@ -10180,13 +10209,13 @@
       <c r="C6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G6" s="10">
@@ -10206,13 +10235,13 @@
       <c r="C7" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G7" s="10">
@@ -10232,13 +10261,13 @@
       <c r="C8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="10">
@@ -10258,13 +10287,13 @@
       <c r="C9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="10">
@@ -10284,13 +10313,13 @@
       <c r="C10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="25">
@@ -10310,13 +10339,13 @@
       <c r="C11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="25">
@@ -10336,13 +10365,13 @@
       <c r="C12" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="27" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="29" t="s">
         <v>77</v>
       </c>
       <c r="G12" s="25">
@@ -10362,13 +10391,13 @@
       <c r="C13" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="29">
         <v>1</v>
       </c>
       <c r="G13" s="10">
@@ -10388,13 +10417,13 @@
       <c r="C14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="29">
         <v>1</v>
       </c>
       <c r="G14" s="25">
@@ -10414,13 +10443,13 @@
       <c r="C15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="28">
         <v>1</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="29" t="s">
         <v>92</v>
       </c>
       <c r="G15" s="25">
@@ -10440,13 +10469,13 @@
       <c r="C16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="28">
         <v>1</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="29" t="s">
         <v>92</v>
       </c>
       <c r="G16" s="25">
@@ -10466,13 +10495,13 @@
       <c r="C17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="27">
         <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="29" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="25">
@@ -10494,7 +10523,7 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10590,79 +10619,79 @@
         <v>4128000</v>
       </c>
       <c r="C2" s="10">
-        <v>4128000</v>
+        <v>3897427</v>
       </c>
       <c r="D2" s="10">
-        <v>4128000</v>
+        <v>3666853</v>
       </c>
       <c r="E2" s="10">
-        <v>4128000</v>
+        <v>3666853</v>
       </c>
       <c r="F2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="G2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="H2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="I2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="J2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="K2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="L2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="M2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="N2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="O2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="P2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="Q2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="R2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="S2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="T2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="U2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="V2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="W2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="X2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="Y2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="Z2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
       <c r="AA2" s="10">
-        <v>4128000</v>
+        <v>3574624</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -10673,79 +10702,79 @@
         <v>4000000</v>
       </c>
       <c r="C3" s="10">
-        <v>4000000</v>
+        <v>3776576</v>
       </c>
       <c r="D3" s="10">
-        <v>4000000</v>
+        <v>3553153</v>
       </c>
       <c r="E3" s="10">
-        <v>4000000</v>
+        <v>3553153</v>
       </c>
       <c r="F3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="G3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="H3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="I3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="J3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="K3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="L3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="M3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="N3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="O3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="P3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="Q3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="R3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="S3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="T3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="U3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="V3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="W3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="X3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="Y3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="Z3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
       <c r="AA3" s="10">
-        <v>4000000</v>
+        <v>3463783</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -10756,79 +10785,79 @@
         <v>3804000</v>
       </c>
       <c r="C4" s="10">
-        <v>3804000</v>
+        <v>3591524</v>
       </c>
       <c r="D4" s="10">
-        <v>3804000</v>
+        <v>3379048</v>
       </c>
       <c r="E4" s="10">
-        <v>3804000</v>
+        <v>3379048</v>
       </c>
       <c r="F4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="G4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="H4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="I4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="J4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="K4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="L4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="M4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="N4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="O4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="P4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="Q4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="R4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="S4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="T4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="U4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="V4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="W4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="X4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="Y4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="Z4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
       <c r="AA4" s="10">
-        <v>3804000</v>
+        <v>3294058</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -10839,79 +10868,79 @@
         <v>3239000</v>
       </c>
       <c r="C5" s="10">
-        <v>3239000</v>
+        <v>3058083</v>
       </c>
       <c r="D5" s="10">
-        <v>3239000</v>
+        <v>2877165</v>
       </c>
       <c r="E5" s="10">
-        <v>3239000</v>
+        <v>2877165</v>
       </c>
       <c r="F5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="G5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="H5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="I5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="J5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="K5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="L5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="M5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="N5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="O5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="P5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="Q5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="R5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="S5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="T5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="U5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="V5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="W5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="X5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="Y5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="Z5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
       <c r="AA5" s="10">
-        <v>3239000</v>
+        <v>2804798</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -10919,82 +10948,82 @@
         <v>31</v>
       </c>
       <c r="B6" s="10">
-        <v>4722000</v>
+        <v>1683000</v>
       </c>
       <c r="C6" s="10">
-        <v>4722000</v>
+        <v>1588994</v>
       </c>
       <c r="D6" s="10">
-        <v>4722000</v>
+        <v>1494989</v>
       </c>
       <c r="E6" s="10">
-        <v>4722000</v>
+        <v>1494989</v>
       </c>
       <c r="F6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="G6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="H6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="I6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="J6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="K6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="L6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="M6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="N6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="O6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="P6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="Q6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="R6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="S6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="T6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="U6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="V6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="W6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="X6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="Y6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="Z6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
       <c r="AA6" s="10">
-        <v>4722000</v>
+        <v>1457387</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -11002,82 +11031,82 @@
         <v>32</v>
       </c>
       <c r="B7" s="10">
-        <v>4237000</v>
+        <v>4722000</v>
       </c>
       <c r="C7" s="10">
-        <v>4237000</v>
+        <v>4458248</v>
       </c>
       <c r="D7" s="10">
-        <v>4237000</v>
+        <v>4194497</v>
       </c>
       <c r="E7" s="10">
-        <v>4237000</v>
+        <v>4194497</v>
       </c>
       <c r="F7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="G7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="H7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="I7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="J7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="K7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="L7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="M7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="N7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="O7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="P7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="Q7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="R7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="S7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="T7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="U7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="V7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="W7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="X7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="Y7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="Z7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
       <c r="AA7" s="10">
-        <v>4237000</v>
+        <v>4088996</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -11085,82 +11114,82 @@
         <v>36</v>
       </c>
       <c r="B8" s="10">
-        <v>4000000</v>
+        <v>4237000</v>
       </c>
       <c r="C8" s="10">
-        <v>4000000</v>
+        <v>4000338</v>
       </c>
       <c r="D8" s="10">
-        <v>4000000</v>
+        <v>3763677</v>
       </c>
       <c r="E8" s="10">
-        <v>4000000</v>
+        <v>3763677</v>
       </c>
       <c r="F8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="G8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="H8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="I8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="J8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="K8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="L8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="M8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="N8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="O8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="P8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="Q8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="R8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="S8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="T8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="U8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="V8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="W8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="X8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="Y8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="Z8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
       <c r="AA8" s="10">
-        <v>4000000</v>
+        <v>3669012</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -11168,82 +11197,82 @@
         <v>39</v>
       </c>
       <c r="B9" s="10">
-        <v>3624000</v>
+        <v>4000000</v>
       </c>
       <c r="C9" s="10">
-        <v>3624000</v>
+        <v>3776576</v>
       </c>
       <c r="D9" s="10">
-        <v>3624000</v>
+        <v>3553153</v>
       </c>
       <c r="E9" s="10">
-        <v>3624000</v>
+        <v>3553153</v>
       </c>
       <c r="F9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="G9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="H9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="I9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="J9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="K9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="L9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="M9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="N9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="O9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="P9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="Q9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="R9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="S9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="T9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="U9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="V9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="W9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="X9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="Y9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="Z9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
       <c r="AA9" s="10">
-        <v>3624000</v>
+        <v>3463783</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -11251,82 +11280,82 @@
         <v>34</v>
       </c>
       <c r="B10" s="25">
-        <v>4127000</v>
+        <v>3624000</v>
       </c>
       <c r="C10" s="25">
-        <v>4127000</v>
+        <v>3421578</v>
       </c>
       <c r="D10" s="25">
-        <v>4127000</v>
+        <v>3219156</v>
       </c>
       <c r="E10" s="25">
-        <v>4127000</v>
+        <v>3219156</v>
       </c>
       <c r="F10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="G10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="H10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="I10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="J10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="K10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="L10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="M10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="N10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="O10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="P10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="Q10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="R10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="S10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="T10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="U10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="V10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="W10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="X10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="Y10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="Z10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
       <c r="AA10" s="25">
-        <v>4127000</v>
+        <v>3138187</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -11334,82 +11363,82 @@
         <v>35</v>
       </c>
       <c r="B11" s="25">
-        <v>4000000</v>
+        <v>4127000</v>
       </c>
       <c r="C11" s="25">
-        <v>4000000</v>
+        <v>3896483</v>
       </c>
       <c r="D11" s="25">
-        <v>4000000</v>
+        <v>3665965</v>
       </c>
       <c r="E11" s="25">
-        <v>4000000</v>
+        <v>3665965</v>
       </c>
       <c r="F11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="G11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="H11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="I11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="J11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="K11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="L11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="M11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="N11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="O11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="P11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="Q11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="R11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="S11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="T11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="U11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="V11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="W11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="X11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="Y11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="Z11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
       <c r="AA11" s="25">
-        <v>4000000</v>
+        <v>3573758</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -11417,82 +11446,82 @@
         <v>41</v>
       </c>
       <c r="B12" s="25">
-        <v>1914000</v>
+        <v>4000000</v>
       </c>
       <c r="C12" s="25">
-        <v>1914000</v>
+        <v>3776576</v>
       </c>
       <c r="D12" s="25">
-        <v>1914000</v>
+        <v>3553153</v>
       </c>
       <c r="E12" s="25">
-        <v>1914000</v>
+        <v>3553153</v>
       </c>
       <c r="F12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="G12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="H12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="I12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="J12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="K12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="L12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="M12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="N12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="O12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="P12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="Q12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="R12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="S12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="T12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="U12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="V12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="W12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="X12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="Y12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="Z12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
       <c r="AA12" s="25">
-        <v>1914000</v>
+        <v>3463783</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -11500,82 +11529,82 @@
         <v>42</v>
       </c>
       <c r="B13" s="10">
-        <v>1683000</v>
+        <v>1914000</v>
       </c>
       <c r="C13" s="10">
-        <v>1683000</v>
+        <v>1807092</v>
       </c>
       <c r="D13" s="10">
-        <v>1683000</v>
+        <v>1700183</v>
       </c>
       <c r="E13" s="10">
-        <v>1683000</v>
+        <v>1700183</v>
       </c>
       <c r="F13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="G13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="H13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="I13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="J13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="K13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="L13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="M13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="N13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="O13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="P13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="Q13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="R13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="S13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="T13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="U13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="V13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="W13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="X13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="Y13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="Z13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
       <c r="AA13" s="10">
-        <v>1683000</v>
+        <v>1657420</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -11586,79 +11615,79 @@
         <v>1280000</v>
       </c>
       <c r="C14" s="25">
-        <v>1280000</v>
+        <v>1208504</v>
       </c>
       <c r="D14" s="25">
-        <v>1280000</v>
+        <v>1137009</v>
       </c>
       <c r="E14" s="25">
-        <v>1280000</v>
+        <v>1137009</v>
       </c>
       <c r="F14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="G14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="H14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="I14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="J14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="K14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="L14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="M14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="N14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="O14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="P14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="Q14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="R14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="S14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="T14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="U14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="V14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="W14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="X14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="Y14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="Z14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
       <c r="AA14" s="25">
-        <v>1280000</v>
+        <v>1108411</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -11844,70 +11873,70 @@
         <v>0</v>
       </c>
       <c r="F17" s="25">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="G17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="I17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="K17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="L17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="M17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="N17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="O17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="P17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="Q17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="R17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="S17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="T17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="U17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="V17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="W17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="X17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="Y17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="Z17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="AA17" s="25">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>
@@ -11921,7 +11950,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13021,7 +13050,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8A45D-A6B4-C14E-9A02-626494C37108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EADF57-5D9B-5345-8BF6-EDFA8163F3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1110,7 @@
         <v>65</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1127,7 +1127,7 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1136,7 +1136,7 @@
         <v>85</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>72</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -1170,7 +1170,7 @@
         <v>84</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1367,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8574,7 +8574,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8735,7 +8735,7 @@
         <v>0.4</v>
       </c>
       <c r="E9" s="13">
-        <v>2030</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9912,7 +9912,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10038,7 +10038,7 @@
         <v>73</v>
       </c>
       <c r="B15">
-        <v>2030</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -10053,7 +10053,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10508,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="26">
-        <v>2030</v>
+        <v>2029</v>
       </c>
     </row>
   </sheetData>
@@ -10520,13 +10520,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF08FAA-2FE8-334E-925F-993A56983EE6}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -11276,7 +11280,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="25">
@@ -11359,7 +11363,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="25">
@@ -11442,7 +11446,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="25">
@@ -11535,10 +11539,10 @@
         <v>1807092</v>
       </c>
       <c r="D13" s="10">
-        <v>1700183</v>
+        <v>1700182</v>
       </c>
       <c r="E13" s="10">
-        <v>1700183</v>
+        <v>1700182</v>
       </c>
       <c r="F13" s="10">
         <v>1657420</v>
@@ -11608,14 +11612,14 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="25">
         <v>1280000</v>
       </c>
       <c r="C14" s="25">
-        <v>1208504</v>
+        <v>1208505</v>
       </c>
       <c r="D14" s="25">
         <v>1137009</v>
@@ -11691,7 +11695,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="25">
@@ -11774,7 +11778,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="25">
@@ -11857,7 +11861,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="25">
@@ -11938,6 +11942,34 @@
       <c r="AA17" s="25">
         <v>1000000</v>
       </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11950,7 +11982,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EADF57-5D9B-5345-8BF6-EDFA8163F3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A615AE6-A3FE-E445-866E-117A6D317BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" activeTab="5" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" activeTab="4" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1136,7 @@
         <v>85</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>84</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10052,8 +10052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10219,7 +10219,7 @@
         <v>77</v>
       </c>
       <c r="G6" s="10">
-        <v>4722000</v>
+        <v>1683000</v>
       </c>
       <c r="H6" s="5">
         <v>2013</v>
@@ -10245,7 +10245,7 @@
         <v>77</v>
       </c>
       <c r="G7" s="10">
-        <v>4237000</v>
+        <v>4722000</v>
       </c>
       <c r="H7" s="5">
         <v>2016</v>
@@ -10271,7 +10271,7 @@
         <v>77</v>
       </c>
       <c r="G8" s="10">
-        <v>4000000</v>
+        <v>4237000</v>
       </c>
       <c r="H8" s="5">
         <v>2010</v>
@@ -10297,7 +10297,7 @@
         <v>77</v>
       </c>
       <c r="G9" s="10">
-        <v>3624000</v>
+        <v>4000000</v>
       </c>
       <c r="H9" s="5">
         <v>2022</v>
@@ -10323,7 +10323,7 @@
         <v>77</v>
       </c>
       <c r="G10" s="25">
-        <v>4127000</v>
+        <v>3624000</v>
       </c>
       <c r="H10" s="26">
         <v>2020</v>
@@ -10349,7 +10349,7 @@
         <v>77</v>
       </c>
       <c r="G11" s="25">
-        <v>4000000</v>
+        <v>4127000</v>
       </c>
       <c r="H11" s="26">
         <v>2010</v>
@@ -10375,7 +10375,7 @@
         <v>77</v>
       </c>
       <c r="G12" s="25">
-        <v>1914000</v>
+        <v>4000000</v>
       </c>
       <c r="H12" s="26">
         <v>2015</v>
@@ -10401,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="10">
-        <v>1683000</v>
+        <v>1914000</v>
       </c>
       <c r="H13" s="5">
         <v>2015</v>
@@ -10522,8 +10522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF08FAA-2FE8-334E-925F-993A56983EE6}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A615AE6-A3FE-E445-866E-117A6D317BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149851FD-EBC5-4549-BC12-439B11C81B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" activeTab="4" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" activeTab="9" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1110,7 +1110,7 @@
         <v>65</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -1119,7 +1119,7 @@
         <v>84</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1136,7 +1136,7 @@
         <v>85</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>72</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -1153,7 +1153,7 @@
         <v>84</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -10052,8 +10052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10523,7 +10523,7 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13082,7 +13082,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13179,82 +13179,108 @@
         <v>65</v>
       </c>
       <c r="B2" s="16">
-        <v>421098.9</v>
+        <f>capex!B2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="C2" s="16">
-        <v>421098.9</v>
+        <f>capex!C2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="D2" s="16">
-        <v>421098.9</v>
+        <f>capex!D2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="E2" s="16">
-        <v>421098.9</v>
+        <f>capex!E2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="F2" s="16">
-        <v>421098.9</v>
+        <f>capex!F2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="G2" s="16">
-        <v>421098.9</v>
+        <f>capex!G2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="H2" s="16">
-        <v>421098.9</v>
+        <f>capex!H2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="I2" s="16">
-        <v>421098.9</v>
+        <f>capex!I2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="J2" s="16">
-        <v>421098.9</v>
+        <f>capex!J2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="K2" s="16">
-        <v>421098.9</v>
+        <f>capex!K2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="L2" s="16">
-        <v>421098.9</v>
+        <f>capex!L2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="M2" s="16">
-        <v>421098.9</v>
+        <f>capex!M2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="N2" s="16">
-        <v>421098.9</v>
+        <f>capex!N2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="O2" s="16">
-        <v>421098.9</v>
+        <f>capex!O2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="P2" s="16">
-        <v>421098.9</v>
+        <f>capex!P2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="Q2" s="16">
-        <v>421098.9</v>
+        <f>capex!Q2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="R2" s="16">
-        <v>421098.9</v>
+        <f>capex!R2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="S2" s="16">
-        <v>421098.9</v>
+        <f>capex!S2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="T2" s="16">
-        <v>421098.9</v>
+        <f>capex!T2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="U2" s="16">
-        <v>421098.9</v>
+        <f>capex!U2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="V2" s="16">
-        <v>421098.9</v>
+        <f>capex!V2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="W2" s="16">
-        <v>421098.9</v>
+        <f>capex!W2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="X2" s="16">
-        <v>421098.9</v>
+        <f>capex!X2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="Y2" s="16">
-        <v>421098.9</v>
+        <f>capex!Y2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="Z2" s="16">
-        <v>421098.9</v>
+        <f>capex!Z2*0.3</f>
+        <v>150210</v>
       </c>
       <c r="AA2" s="16">
-        <v>421098.9</v>
+        <f>capex!AA2*0.3</f>
+        <v>150210</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -13262,82 +13288,108 @@
         <v>66</v>
       </c>
       <c r="B3" s="16">
-        <v>357934.065</v>
+        <f>capex!B3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="C3" s="16">
-        <v>357934.065</v>
+        <f>capex!C3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="D3" s="16">
-        <v>357934.065</v>
+        <f>capex!D3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="E3" s="16">
-        <v>357934.065</v>
+        <f>capex!E3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="F3" s="16">
-        <v>357934.065</v>
+        <f>capex!F3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="G3" s="16">
-        <v>357934.065</v>
+        <f>capex!G3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="H3" s="16">
-        <v>357934.065</v>
+        <f>capex!H3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="I3" s="16">
-        <v>357934.065</v>
+        <f>capex!I3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="J3" s="16">
-        <v>357934.065</v>
+        <f>capex!J3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="K3" s="16">
-        <v>357934.065</v>
+        <f>capex!K3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="L3" s="16">
-        <v>357934.065</v>
+        <f>capex!L3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="M3" s="16">
-        <v>357934.065</v>
+        <f>capex!M3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="N3" s="16">
-        <v>357934.065</v>
+        <f>capex!N3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="O3" s="16">
-        <v>357934.065</v>
+        <f>capex!O3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="P3" s="16">
-        <v>357934.065</v>
+        <f>capex!P3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="Q3" s="16">
-        <v>357934.065</v>
+        <f>capex!Q3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="R3" s="16">
-        <v>357934.065</v>
+        <f>capex!R3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="S3" s="16">
-        <v>357934.065</v>
+        <f>capex!S3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="T3" s="16">
-        <v>357934.065</v>
+        <f>capex!T3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="U3" s="16">
-        <v>357934.065</v>
+        <f>capex!U3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="V3" s="16">
-        <v>357934.065</v>
+        <f>capex!V3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="W3" s="16">
-        <v>357934.065</v>
+        <f>capex!W3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="X3" s="16">
-        <v>357934.065</v>
+        <f>capex!X3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="Y3" s="16">
-        <v>357934.065</v>
+        <f>capex!Y3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="Z3" s="16">
-        <v>357934.065</v>
+        <f>capex!Z3*0.3</f>
+        <v>127678.5</v>
       </c>
       <c r="AA3" s="16">
-        <v>357934.065</v>
+        <f>capex!AA3*0.3</f>
+        <v>127678.5</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -13345,108 +13397,108 @@
         <v>72</v>
       </c>
       <c r="B4" s="16">
-        <f>B2*2</f>
-        <v>842197.8</v>
+        <f>capex!B4*0.3</f>
+        <v>330000</v>
       </c>
       <c r="C4" s="16">
-        <f t="shared" ref="C4:AA4" si="0">C2*2</f>
-        <v>842197.8</v>
+        <f>capex!C4*0.3</f>
+        <v>330000</v>
       </c>
       <c r="D4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!D4*0.3</f>
+        <v>330000</v>
       </c>
       <c r="E4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!E4*0.3</f>
+        <v>330000</v>
       </c>
       <c r="F4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!F4*0.3</f>
+        <v>330000</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!G4*0.3</f>
+        <v>330000</v>
       </c>
       <c r="H4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!H4*0.3</f>
+        <v>323400</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!I4*0.3</f>
+        <v>316932</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!J4*0.3</f>
+        <v>310593.36</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!K4*0.3</f>
+        <v>304381.49279999995</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!L4*0.3</f>
+        <v>298293.86294399993</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!M4*0.3</f>
+        <v>292327.98568511993</v>
       </c>
       <c r="N4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!N4*0.3</f>
+        <v>286481.42597141751</v>
       </c>
       <c r="O4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!O4*0.3</f>
+        <v>280751.79745198914</v>
       </c>
       <c r="P4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!P4*0.3</f>
+        <v>275136.76150294935</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!Q4*0.3</f>
+        <v>269634.02627289039</v>
       </c>
       <c r="R4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!R4*0.3</f>
+        <v>264241.34574743256</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!S4*0.3</f>
+        <v>258956.51883248394</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!T4*0.3</f>
+        <v>253777.38845583427</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!U4*0.3</f>
+        <v>248701.84068671757</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!V4*0.3</f>
+        <v>243727.8038729832</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!W4*0.3</f>
+        <v>238853.24779552355</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!X4*0.3</f>
+        <v>234076.18283961309</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!Y4*0.3</f>
+        <v>229394.65918282082</v>
       </c>
       <c r="Z4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!Z4*0.3</f>
+        <v>224806.7659991644</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" si="0"/>
-        <v>842197.8</v>
+        <f>capex!AA4*0.3</f>
+        <v>220310.63067918111</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -13454,82 +13506,108 @@
         <v>44</v>
       </c>
       <c r="B5" s="16">
-        <v>185299.77</v>
+        <f>capex!B5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="C5" s="16">
-        <v>185299.77</v>
+        <f>capex!C5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="D5" s="16">
-        <v>185299.77</v>
+        <f>capex!D5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="E5" s="16">
-        <v>185299.77</v>
+        <f>capex!E5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="F5" s="16">
-        <v>185299.77</v>
+        <f>capex!F5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="G5" s="16">
-        <v>185299.77</v>
+        <f>capex!G5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="H5" s="16">
-        <v>185299.77</v>
+        <f>capex!H5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="I5" s="16">
-        <v>185299.77</v>
+        <f>capex!I5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="J5" s="16">
-        <v>185299.77</v>
+        <f>capex!J5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="K5" s="16">
-        <v>185299.77</v>
+        <f>capex!K5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="L5" s="16">
-        <v>185299.77</v>
+        <f>capex!L5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="M5" s="16">
-        <v>185299.77</v>
+        <f>capex!M5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="N5" s="16">
-        <v>185299.77</v>
+        <f>capex!N5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="O5" s="16">
-        <v>185299.77</v>
+        <f>capex!O5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="P5" s="16">
-        <v>185299.77</v>
+        <f>capex!P5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="Q5" s="16">
-        <v>185299.77</v>
+        <f>capex!Q5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="R5" s="16">
-        <v>185299.77</v>
+        <f>capex!R5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="S5" s="16">
-        <v>185299.77</v>
+        <f>capex!S5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="T5" s="16">
-        <v>185299.77</v>
+        <f>capex!T5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="U5" s="16">
-        <v>185299.77</v>
+        <f>capex!U5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="V5" s="16">
-        <v>185299.77</v>
+        <f>capex!V5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="W5" s="16">
-        <v>185299.77</v>
+        <f>capex!W5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="X5" s="16">
-        <v>185299.77</v>
+        <f>capex!X5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="Y5" s="16">
-        <v>185299.77</v>
+        <f>capex!Y5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="Z5" s="16">
-        <v>185299.77</v>
+        <f>capex!Z5*0.3</f>
+        <v>120000</v>
       </c>
       <c r="AA5" s="16">
-        <v>185299.77</v>
+        <f>capex!AA5*0.3</f>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149851FD-EBC5-4549-BC12-439B11C81B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED0746E-9EE0-DB41-918F-5ECFCD11FF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" activeTab="9" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" firstSheet="2" activeTab="9" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1136,7 @@
         <v>85</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="B13" sqref="B13:AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2623,82 +2623,107 @@
         <v>55</v>
       </c>
       <c r="B13" s="16">
-        <v>32481</v>
+        <v>46888.89</v>
       </c>
       <c r="C13" s="16">
-        <v>32481</v>
+        <f>B13*1.04</f>
+        <v>48764.445599999999</v>
       </c>
       <c r="D13" s="16">
-        <v>32481</v>
+        <f t="shared" ref="D13:AA13" si="24">C13*1.04</f>
+        <v>50715.023423999999</v>
       </c>
       <c r="E13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>52743.624360959999</v>
       </c>
       <c r="F13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>54853.369335398398</v>
       </c>
       <c r="G13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>57047.504108814333</v>
       </c>
       <c r="H13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>59329.404273166911</v>
       </c>
       <c r="I13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>61702.58044409359</v>
       </c>
       <c r="J13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>64170.683661857336</v>
       </c>
       <c r="K13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>66737.511008331625</v>
       </c>
       <c r="L13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="M13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>72183.291906611499</v>
       </c>
       <c r="N13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>75070.623582875967</v>
       </c>
       <c r="O13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>78073.448526191016</v>
       </c>
       <c r="P13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>81196.386467238655</v>
       </c>
       <c r="Q13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>84444.241925928203</v>
       </c>
       <c r="R13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>87822.011602965329</v>
       </c>
       <c r="S13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>91334.892067083943</v>
       </c>
       <c r="T13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>94988.287749767303</v>
       </c>
       <c r="U13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>98787.819259758006</v>
       </c>
       <c r="V13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>102739.33203014833</v>
       </c>
       <c r="W13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>106848.90531135428</v>
       </c>
       <c r="X13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>111122.86152380845</v>
       </c>
       <c r="Y13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>115567.77598476078</v>
       </c>
       <c r="Z13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>120190.48702415121</v>
       </c>
       <c r="AA13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>124998.10650511726</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -2706,82 +2731,107 @@
         <v>56</v>
       </c>
       <c r="B14" s="16">
-        <v>32481</v>
+        <v>46888.89</v>
       </c>
       <c r="C14" s="16">
-        <v>32481</v>
+        <f t="shared" ref="C14:AA14" si="25">B14*1.04</f>
+        <v>48764.445599999999</v>
       </c>
       <c r="D14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>50715.023423999999</v>
       </c>
       <c r="E14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>52743.624360959999</v>
       </c>
       <c r="F14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>54853.369335398398</v>
       </c>
       <c r="G14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>57047.504108814333</v>
       </c>
       <c r="H14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>59329.404273166911</v>
       </c>
       <c r="I14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>61702.58044409359</v>
       </c>
       <c r="J14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>64170.683661857336</v>
       </c>
       <c r="K14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>66737.511008331625</v>
       </c>
       <c r="L14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="M14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>72183.291906611499</v>
       </c>
       <c r="N14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>75070.623582875967</v>
       </c>
       <c r="O14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>78073.448526191016</v>
       </c>
       <c r="P14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>81196.386467238655</v>
       </c>
       <c r="Q14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>84444.241925928203</v>
       </c>
       <c r="R14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>87822.011602965329</v>
       </c>
       <c r="S14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>91334.892067083943</v>
       </c>
       <c r="T14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>94988.287749767303</v>
       </c>
       <c r="U14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>98787.819259758006</v>
       </c>
       <c r="V14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>102739.33203014833</v>
       </c>
       <c r="W14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>106848.90531135428</v>
       </c>
       <c r="X14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>111122.86152380845</v>
       </c>
       <c r="Y14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>115567.77598476078</v>
       </c>
       <c r="Z14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>120190.48702415121</v>
       </c>
       <c r="AA14" s="16">
-        <v>32481</v>
+        <f t="shared" si="25"/>
+        <v>124998.10650511726</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -7032,7 +7082,7 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7545,82 +7595,82 @@
         <v>53</v>
       </c>
       <c r="B7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="C7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="D7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="E7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="F7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="G7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="H7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="I7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="J7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="K7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="L7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="M7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="N7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="O7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="P7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="Q7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="R7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="S7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="T7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="U7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="V7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="W7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="X7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="Y7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="Z7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="AA7" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -7628,82 +7678,82 @@
         <v>51</v>
       </c>
       <c r="B8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="C8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="D8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="E8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="F8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="G8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="H8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="I8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="J8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="K8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="L8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="M8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="N8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="O8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="P8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="Q8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="R8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="S8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="T8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="U8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="V8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="W8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="X8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="Y8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="Z8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
       <c r="AA8" s="16">
-        <v>375000</v>
+        <v>388793.24</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
@@ -10053,7 +10103,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10523,7 +10573,7 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,26 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED0746E-9EE0-DB41-918F-5ECFCD11FF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D166E44-552C-B948-8B83-6A8380DAB7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" tabRatio="775" firstSheet="2" activeTab="9" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" tabRatio="775" firstSheet="3" activeTab="14" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
     <sheet name="technology_feedstock_pairs" sheetId="6" r:id="rId2"/>
     <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId3"/>
     <sheet name="fuel_introduction" sheetId="26" r:id="rId4"/>
-    <sheet name="baseline" sheetId="7" r:id="rId5"/>
-    <sheet name="production" sheetId="28" r:id="rId6"/>
-    <sheet name="capex" sheetId="13" r:id="rId7"/>
-    <sheet name="opex" sheetId="14" r:id="rId8"/>
-    <sheet name="renewal" sheetId="15" r:id="rId9"/>
-    <sheet name="technology" sheetId="19" r:id="rId10"/>
-    <sheet name="carbonprice" sheetId="25" r:id="rId11"/>
-    <sheet name="emission" sheetId="23" r:id="rId12"/>
-    <sheet name="fuel_cost" sheetId="8" r:id="rId13"/>
-    <sheet name="fuel_intensity" sheetId="16" r:id="rId14"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId15"/>
+    <sheet name="fuel_intensity" sheetId="16" r:id="rId5"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId6"/>
+    <sheet name="baseline" sheetId="7" r:id="rId7"/>
+    <sheet name="production" sheetId="28" r:id="rId8"/>
+    <sheet name="capex" sheetId="13" r:id="rId9"/>
+    <sheet name="opex" sheetId="14" r:id="rId10"/>
+    <sheet name="renewal" sheetId="15" r:id="rId11"/>
+    <sheet name="technology" sheetId="19" r:id="rId12"/>
+    <sheet name="carbonprice" sheetId="25" r:id="rId13"/>
+    <sheet name="emission" sheetId="23" r:id="rId14"/>
+    <sheet name="fuel_cost" sheetId="8" r:id="rId15"/>
     <sheet name="emission_system" sheetId="24" r:id="rId16"/>
     <sheet name="technology_ei" sheetId="21" r:id="rId17"/>
     <sheet name="feedstock_cost" sheetId="11" r:id="rId18"/>
@@ -375,10 +375,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -521,7 +522,7 @@
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,6 +592,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1072,11 +1076,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AA5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="16">
+        <f>capex!B2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="C2" s="16">
+        <f>capex!C2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="D2" s="16">
+        <f>capex!D2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="E2" s="16">
+        <f>capex!E2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="F2" s="16">
+        <f>capex!F2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="G2" s="16">
+        <f>capex!G2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="H2" s="16">
+        <f>capex!H2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="I2" s="16">
+        <f>capex!I2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="J2" s="16">
+        <f>capex!J2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="K2" s="16">
+        <f>capex!K2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="L2" s="16">
+        <f>capex!L2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="M2" s="16">
+        <f>capex!M2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="N2" s="16">
+        <f>capex!N2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="O2" s="16">
+        <f>capex!O2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="P2" s="16">
+        <f>capex!P2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="Q2" s="16">
+        <f>capex!Q2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="R2" s="16">
+        <f>capex!R2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="S2" s="16">
+        <f>capex!S2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="T2" s="16">
+        <f>capex!T2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="U2" s="16">
+        <f>capex!U2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="V2" s="16">
+        <f>capex!V2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="W2" s="16">
+        <f>capex!W2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="X2" s="16">
+        <f>capex!X2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="Y2" s="16">
+        <f>capex!Y2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="Z2" s="16">
+        <f>capex!Z2*0.5</f>
+        <v>250350</v>
+      </c>
+      <c r="AA2" s="16">
+        <f>capex!AA2*0.5</f>
+        <v>250350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="16">
+        <f>capex!B3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="C3" s="16">
+        <f>capex!C3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="D3" s="16">
+        <f>capex!D3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="E3" s="16">
+        <f>capex!E3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="F3" s="16">
+        <f>capex!F3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="G3" s="16">
+        <f>capex!G3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="H3" s="16">
+        <f>capex!H3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="I3" s="16">
+        <f>capex!I3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="J3" s="16">
+        <f>capex!J3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="K3" s="16">
+        <f>capex!K3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="L3" s="16">
+        <f>capex!L3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="M3" s="16">
+        <f>capex!M3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="N3" s="16">
+        <f>capex!N3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="O3" s="16">
+        <f>capex!O3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="P3" s="16">
+        <f>capex!P3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="Q3" s="16">
+        <f>capex!Q3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="R3" s="16">
+        <f>capex!R3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="S3" s="16">
+        <f>capex!S3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="T3" s="16">
+        <f>capex!T3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="U3" s="16">
+        <f>capex!U3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="V3" s="16">
+        <f>capex!V3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="W3" s="16">
+        <f>capex!W3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="X3" s="16">
+        <f>capex!X3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="Y3" s="16">
+        <f>capex!Y3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="Z3" s="16">
+        <f>capex!Z3*0.5</f>
+        <v>212797.5</v>
+      </c>
+      <c r="AA3" s="16">
+        <f>capex!AA3*0.5</f>
+        <v>212797.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="16">
+        <f>capex!B4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="C4" s="16">
+        <f>capex!C4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="D4" s="16">
+        <f>capex!D4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="E4" s="16">
+        <f>capex!E4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="F4" s="16">
+        <f>capex!F4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="G4" s="16">
+        <f>capex!G4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="H4" s="16">
+        <f>capex!H4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="I4" s="16">
+        <f>capex!I4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="J4" s="16">
+        <f>capex!J4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="K4" s="16">
+        <f>capex!K4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="L4" s="16">
+        <f>capex!L4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="M4" s="16">
+        <f>capex!M4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="N4" s="16">
+        <f>capex!N4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="O4" s="16">
+        <f>capex!O4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="P4" s="16">
+        <f>capex!P4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="Q4" s="16">
+        <f>capex!Q4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="R4" s="16">
+        <f>capex!R4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="S4" s="16">
+        <f>capex!S4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="T4" s="16">
+        <f>capex!T4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="U4" s="16">
+        <f>capex!U4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="V4" s="16">
+        <f>capex!V4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="W4" s="16">
+        <f>capex!W4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="X4" s="16">
+        <f>capex!X4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="Y4" s="16">
+        <f>capex!Y4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="Z4" s="16">
+        <f>capex!Z4*0.5</f>
+        <v>550000</v>
+      </c>
+      <c r="AA4" s="16">
+        <f>capex!AA4*0.5</f>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="16">
+        <f>capex!B5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="C5" s="16">
+        <f>capex!C5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="D5" s="16">
+        <f>capex!D5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="E5" s="16">
+        <f>capex!E5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="F5" s="16">
+        <f>capex!F5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="G5" s="16">
+        <f>capex!G5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="H5" s="16">
+        <f>capex!H5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="I5" s="16">
+        <f>capex!I5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="J5" s="16">
+        <f>capex!J5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="K5" s="16">
+        <f>capex!K5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="L5" s="16">
+        <f>capex!L5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="M5" s="16">
+        <f>capex!M5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="N5" s="16">
+        <f>capex!N5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="O5" s="16">
+        <f>capex!O5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="P5" s="16">
+        <f>capex!P5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="Q5" s="16">
+        <f>capex!Q5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="R5" s="16">
+        <f>capex!R5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="S5" s="16">
+        <f>capex!S5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="T5" s="16">
+        <f>capex!T5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="U5" s="16">
+        <f>capex!U5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="V5" s="16">
+        <f>capex!V5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="W5" s="16">
+        <f>capex!W5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="X5" s="16">
+        <f>capex!X5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="Y5" s="16">
+        <f>capex!Y5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="Z5" s="16">
+        <f>capex!Z5*0.5</f>
+        <v>120000</v>
+      </c>
+      <c r="AA5" s="16">
+        <f>capex!AA5*0.5</f>
+        <v>120000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18CEE6-4CB2-4E28-86E1-E84E657A73A8}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AA5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="16">
+        <f>capex!B2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="C2" s="16">
+        <f>capex!C2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="D2" s="16">
+        <f>capex!D2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="E2" s="16">
+        <f>capex!E2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="F2" s="16">
+        <f>capex!F2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="G2" s="16">
+        <f>capex!G2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="H2" s="16">
+        <f>capex!H2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="I2" s="16">
+        <f>capex!I2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="J2" s="16">
+        <f>capex!J2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="K2" s="16">
+        <f>capex!K2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="L2" s="16">
+        <f>capex!L2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="M2" s="16">
+        <f>capex!M2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="N2" s="16">
+        <f>capex!N2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="O2" s="16">
+        <f>capex!O2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="P2" s="16">
+        <f>capex!P2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="Q2" s="16">
+        <f>capex!Q2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="R2" s="16">
+        <f>capex!R2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="S2" s="16">
+        <f>capex!S2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="T2" s="16">
+        <f>capex!T2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="U2" s="16">
+        <f>capex!U2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="V2" s="16">
+        <f>capex!V2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="W2" s="16">
+        <f>capex!W2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="X2" s="16">
+        <f>capex!X2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="Y2" s="16">
+        <f>capex!Y2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="Z2" s="16">
+        <f>capex!Z2*0.4</f>
+        <v>200280</v>
+      </c>
+      <c r="AA2" s="16">
+        <f>capex!AA2*0.4</f>
+        <v>200280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="16">
+        <f>capex!B3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="C3" s="16">
+        <f>capex!C3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="D3" s="16">
+        <f>capex!D3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="E3" s="16">
+        <f>capex!E3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="F3" s="16">
+        <f>capex!F3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="G3" s="16">
+        <f>capex!G3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="H3" s="16">
+        <f>capex!H3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="I3" s="16">
+        <f>capex!I3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="J3" s="16">
+        <f>capex!J3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="K3" s="16">
+        <f>capex!K3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="L3" s="16">
+        <f>capex!L3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="M3" s="16">
+        <f>capex!M3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="N3" s="16">
+        <f>capex!N3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="O3" s="16">
+        <f>capex!O3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="P3" s="16">
+        <f>capex!P3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="Q3" s="16">
+        <f>capex!Q3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="R3" s="16">
+        <f>capex!R3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="S3" s="16">
+        <f>capex!S3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="T3" s="16">
+        <f>capex!T3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="U3" s="16">
+        <f>capex!U3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="V3" s="16">
+        <f>capex!V3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="W3" s="16">
+        <f>capex!W3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="X3" s="16">
+        <f>capex!X3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="Y3" s="16">
+        <f>capex!Y3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="Z3" s="16">
+        <f>capex!Z3*0.4</f>
+        <v>170238</v>
+      </c>
+      <c r="AA3" s="16">
+        <f>capex!AA3*0.4</f>
+        <v>170238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="16">
+        <f>capex!B4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="C4" s="16">
+        <f>capex!C4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="D4" s="16">
+        <f>capex!D4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="E4" s="16">
+        <f>capex!E4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="F4" s="16">
+        <f>capex!F4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="G4" s="16">
+        <f>capex!G4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="H4" s="16">
+        <f>capex!H4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="I4" s="16">
+        <f>capex!I4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="J4" s="16">
+        <f>capex!J4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="K4" s="16">
+        <f>capex!K4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="L4" s="16">
+        <f>capex!L4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="M4" s="16">
+        <f>capex!M4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="N4" s="16">
+        <f>capex!N4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="O4" s="16">
+        <f>capex!O4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="P4" s="16">
+        <f>capex!P4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="Q4" s="16">
+        <f>capex!Q4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="R4" s="16">
+        <f>capex!R4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="S4" s="16">
+        <f>capex!S4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="T4" s="16">
+        <f>capex!T4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="U4" s="16">
+        <f>capex!U4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="V4" s="16">
+        <f>capex!V4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="W4" s="16">
+        <f>capex!W4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="X4" s="16">
+        <f>capex!X4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="Y4" s="16">
+        <f>capex!Y4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="Z4" s="16">
+        <f>capex!Z4*0.4</f>
+        <v>440000</v>
+      </c>
+      <c r="AA4" s="16">
+        <f>capex!AA4*0.4</f>
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="16">
+        <f>capex!B5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="C5" s="16">
+        <f>capex!C5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="D5" s="16">
+        <f>capex!D5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="E5" s="16">
+        <f>capex!E5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="F5" s="16">
+        <f>capex!F5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="G5" s="16">
+        <f>capex!G5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="H5" s="16">
+        <f>capex!H5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="I5" s="16">
+        <f>capex!I5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="J5" s="16">
+        <f>capex!J5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="K5" s="16">
+        <f>capex!K5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="L5" s="16">
+        <f>capex!L5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="M5" s="16">
+        <f>capex!M5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="N5" s="16">
+        <f>capex!N5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="O5" s="16">
+        <f>capex!O5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="P5" s="16">
+        <f>capex!P5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="Q5" s="16">
+        <f>capex!Q5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="R5" s="16">
+        <f>capex!R5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="S5" s="16">
+        <f>capex!S5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="T5" s="16">
+        <f>capex!T5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="U5" s="16">
+        <f>capex!U5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="V5" s="16">
+        <f>capex!V5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="W5" s="16">
+        <f>capex!W5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="X5" s="16">
+        <f>capex!X5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="Y5" s="16">
+        <f>capex!Y5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="Z5" s="16">
+        <f>capex!Z5*0.4</f>
+        <v>96000</v>
+      </c>
+      <c r="AA5" s="16">
+        <f>capex!AA5*0.4</f>
+        <v>96000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1161,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -1180,12 +2263,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074F1A1-9C61-4352-AF1E-453C90E48727}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1363,12 +2446,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1471,86 +2554,83 @@
         <v>22</v>
       </c>
       <c r="B2" s="22">
-        <v>80000000</v>
+        <v>104000000</v>
       </c>
       <c r="C2" s="22">
-        <v>78400000</v>
+        <v>99840000</v>
       </c>
       <c r="D2" s="22">
-        <v>76800000</v>
+        <v>95680000</v>
       </c>
       <c r="E2" s="22">
-        <v>75200000</v>
+        <v>91520000</v>
       </c>
       <c r="F2" s="22">
-        <v>73600000</v>
+        <v>87360000</v>
       </c>
       <c r="G2" s="22">
-        <v>72000000</v>
+        <v>83200000</v>
       </c>
       <c r="H2" s="22">
-        <v>68800000</v>
+        <v>79040000</v>
       </c>
       <c r="I2" s="22">
-        <v>65600000</v>
+        <v>74880000</v>
       </c>
       <c r="J2" s="22">
+        <v>70720000</v>
+      </c>
+      <c r="K2" s="22">
+        <v>66560000</v>
+      </c>
+      <c r="L2" s="22">
         <v>62400000</v>
       </c>
-      <c r="K2" s="22">
-        <v>59200000</v>
-      </c>
-      <c r="L2" s="22">
-        <v>56000000</v>
-      </c>
       <c r="M2" s="22">
-        <v>52800000</v>
+        <v>58240000</v>
       </c>
       <c r="N2" s="22">
-        <v>49600000</v>
+        <v>54080000</v>
       </c>
       <c r="O2" s="22">
-        <v>46400000</v>
+        <v>49920000</v>
       </c>
       <c r="P2" s="22">
-        <v>43200000</v>
+        <v>45760000</v>
       </c>
       <c r="Q2" s="22">
-        <v>40000000.000000007</v>
+        <v>41600000</v>
       </c>
       <c r="R2" s="22">
-        <v>36000000</v>
+        <v>37440000</v>
       </c>
       <c r="S2" s="22">
-        <v>32000000</v>
+        <v>33280000</v>
       </c>
       <c r="T2" s="22">
-        <v>28000000</v>
+        <v>29120000</v>
       </c>
       <c r="U2" s="22">
-        <v>24000000.000000004</v>
+        <v>24960000</v>
       </c>
       <c r="V2" s="22">
-        <v>20000000.000000004</v>
+        <v>20800000</v>
       </c>
       <c r="W2" s="22">
-        <v>16000000.000000004</v>
+        <v>16640000</v>
       </c>
       <c r="X2" s="22">
-        <v>12000000.000000004</v>
+        <v>12480000</v>
       </c>
       <c r="Y2" s="22">
-        <v>8000000.0000000075</v>
+        <v>8320000</v>
       </c>
       <c r="Z2" s="22">
-        <v>4000000.0000000075</v>
+        <v>4160000</v>
       </c>
       <c r="AA2" s="22">
-        <v>7.4505805969238281E-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="G3" s="21"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1559,12 +2639,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:AA14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2630,7 +3710,7 @@
         <v>48764.445599999999</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" ref="D13:AA13" si="24">C13*1.04</f>
+        <f t="shared" ref="D13:L13" si="24">C13*1.04</f>
         <v>50715.023423999999</v>
       </c>
       <c r="E13" s="16">
@@ -2666,64 +3746,64 @@
         <v>69407.011448664896</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" si="24"/>
-        <v>72183.291906611499</v>
+        <f>L13</f>
+        <v>69407.011448664896</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="24"/>
-        <v>75070.623582875967</v>
+        <f t="shared" ref="N13:AA14" si="25">M13</f>
+        <v>69407.011448664896</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="24"/>
-        <v>78073.448526191016</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="P13" s="16">
-        <f t="shared" si="24"/>
-        <v>81196.386467238655</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="24"/>
-        <v>84444.241925928203</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" si="24"/>
-        <v>87822.011602965329</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="S13" s="16">
-        <f t="shared" si="24"/>
-        <v>91334.892067083943</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="24"/>
-        <v>94988.287749767303</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="U13" s="16">
-        <f t="shared" si="24"/>
-        <v>98787.819259758006</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="V13" s="16">
-        <f t="shared" si="24"/>
-        <v>102739.33203014833</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="W13" s="16">
-        <f t="shared" si="24"/>
-        <v>106848.90531135428</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="X13" s="16">
-        <f t="shared" si="24"/>
-        <v>111122.86152380845</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="Y13" s="16">
-        <f t="shared" si="24"/>
-        <v>115567.77598476078</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="Z13" s="16">
-        <f t="shared" si="24"/>
-        <v>120190.48702415121</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
       <c r="AA13" s="16">
-        <f t="shared" si="24"/>
-        <v>124998.10650511726</v>
+        <f t="shared" si="25"/>
+        <v>69407.011448664896</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -2734,104 +3814,104 @@
         <v>46888.89</v>
       </c>
       <c r="C14" s="16">
-        <f t="shared" ref="C14:AA14" si="25">B14*1.04</f>
+        <f>B14*1.04</f>
         <v>48764.445599999999</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="D14" si="26">C14*1.04</f>
         <v>50715.023423999999</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="E14" si="27">D14*1.04</f>
         <v>52743.624360959999</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="F14" si="28">E14*1.04</f>
         <v>54853.369335398398</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="G14" si="29">F14*1.04</f>
         <v>57047.504108814333</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="H14" si="30">G14*1.04</f>
         <v>59329.404273166911</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I14" si="31">H14*1.04</f>
         <v>61702.58044409359</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="J14" si="32">I14*1.04</f>
         <v>64170.683661857336</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="K14" si="33">J14*1.04</f>
         <v>66737.511008331625</v>
       </c>
       <c r="L14" s="16">
+        <f t="shared" ref="L14" si="34">K14*1.04</f>
+        <v>69407.011448664896</v>
+      </c>
+      <c r="M14" s="16">
+        <f>L14</f>
+        <v>69407.011448664896</v>
+      </c>
+      <c r="N14" s="16">
         <f t="shared" si="25"/>
         <v>69407.011448664896</v>
       </c>
-      <c r="M14" s="16">
-        <f t="shared" si="25"/>
-        <v>72183.291906611499</v>
-      </c>
-      <c r="N14" s="16">
-        <f t="shared" si="25"/>
-        <v>75070.623582875967</v>
-      </c>
       <c r="O14" s="16">
         <f t="shared" si="25"/>
-        <v>78073.448526191016</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="P14" s="16">
         <f t="shared" si="25"/>
-        <v>81196.386467238655</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="Q14" s="16">
         <f t="shared" si="25"/>
-        <v>84444.241925928203</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="R14" s="16">
         <f t="shared" si="25"/>
-        <v>87822.011602965329</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="S14" s="16">
         <f t="shared" si="25"/>
-        <v>91334.892067083943</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="T14" s="16">
         <f t="shared" si="25"/>
-        <v>94988.287749767303</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="U14" s="16">
         <f t="shared" si="25"/>
-        <v>98787.819259758006</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="V14" s="16">
         <f t="shared" si="25"/>
-        <v>102739.33203014833</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="W14" s="16">
         <f t="shared" si="25"/>
-        <v>106848.90531135428</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="X14" s="16">
         <f t="shared" si="25"/>
-        <v>111122.86152380845</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="Y14" s="16">
         <f t="shared" si="25"/>
-        <v>115567.77598476078</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="Z14" s="16">
         <f t="shared" si="25"/>
-        <v>120190.48702415121</v>
+        <v>69407.011448664896</v>
       </c>
       <c r="AA14" s="16">
         <f t="shared" si="25"/>
-        <v>124998.10650511726</v>
+        <v>69407.011448664896</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -2915,2541 +3995,6 @@
       </c>
       <c r="AA15" s="16">
         <v>40675</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
-  <dimension ref="A1:AA16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2">
-        <v>14.06</v>
-      </c>
-      <c r="C2">
-        <v>14.06</v>
-      </c>
-      <c r="D2">
-        <v>14.06</v>
-      </c>
-      <c r="E2">
-        <v>14.06</v>
-      </c>
-      <c r="F2">
-        <v>14.06</v>
-      </c>
-      <c r="G2">
-        <v>14.06</v>
-      </c>
-      <c r="H2">
-        <v>14.06</v>
-      </c>
-      <c r="I2">
-        <v>14.06</v>
-      </c>
-      <c r="J2">
-        <v>14.06</v>
-      </c>
-      <c r="K2">
-        <v>14.06</v>
-      </c>
-      <c r="L2">
-        <v>14.06</v>
-      </c>
-      <c r="M2">
-        <v>14.06</v>
-      </c>
-      <c r="N2">
-        <v>14.06</v>
-      </c>
-      <c r="O2">
-        <v>14.06</v>
-      </c>
-      <c r="P2">
-        <v>14.06</v>
-      </c>
-      <c r="Q2">
-        <v>14.06</v>
-      </c>
-      <c r="R2">
-        <v>14.06</v>
-      </c>
-      <c r="S2">
-        <v>14.06</v>
-      </c>
-      <c r="T2">
-        <v>14.06</v>
-      </c>
-      <c r="U2">
-        <v>14.06</v>
-      </c>
-      <c r="V2">
-        <v>14.06</v>
-      </c>
-      <c r="W2">
-        <v>14.06</v>
-      </c>
-      <c r="X2">
-        <v>14.06</v>
-      </c>
-      <c r="Y2">
-        <v>14.06</v>
-      </c>
-      <c r="Z2">
-        <v>14.06</v>
-      </c>
-      <c r="AA2">
-        <v>14.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="T3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="W3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="X3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Y3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Z3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AA3">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="T4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="W4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="X4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Y4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Z4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AA4">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="T5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="W5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="X5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Y5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Z5">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AA5">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="T6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="W6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="X6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Y6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Z6">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AA6">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="T7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="W7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="X7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Y7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Z7">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AA7">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>14.06</v>
-      </c>
-      <c r="C8">
-        <v>14.06</v>
-      </c>
-      <c r="D8">
-        <v>14.06</v>
-      </c>
-      <c r="E8">
-        <v>14.06</v>
-      </c>
-      <c r="F8">
-        <v>14.06</v>
-      </c>
-      <c r="G8">
-        <v>14.06</v>
-      </c>
-      <c r="H8">
-        <v>14.06</v>
-      </c>
-      <c r="I8">
-        <v>14.06</v>
-      </c>
-      <c r="J8">
-        <v>14.06</v>
-      </c>
-      <c r="K8">
-        <v>14.06</v>
-      </c>
-      <c r="L8">
-        <v>14.06</v>
-      </c>
-      <c r="M8">
-        <v>14.06</v>
-      </c>
-      <c r="N8">
-        <v>14.06</v>
-      </c>
-      <c r="O8">
-        <v>14.06</v>
-      </c>
-      <c r="P8">
-        <v>14.06</v>
-      </c>
-      <c r="Q8">
-        <v>14.06</v>
-      </c>
-      <c r="R8">
-        <v>14.06</v>
-      </c>
-      <c r="S8">
-        <v>14.06</v>
-      </c>
-      <c r="T8">
-        <v>14.06</v>
-      </c>
-      <c r="U8">
-        <v>14.06</v>
-      </c>
-      <c r="V8">
-        <v>14.06</v>
-      </c>
-      <c r="W8">
-        <v>14.06</v>
-      </c>
-      <c r="X8">
-        <v>14.06</v>
-      </c>
-      <c r="Y8">
-        <v>14.06</v>
-      </c>
-      <c r="Z8">
-        <v>14.06</v>
-      </c>
-      <c r="AA8">
-        <v>14.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="T9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="W9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="X9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Y9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Z9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AA9">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="D10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="H10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="J10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="K10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="N10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="O10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="P10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="S10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="T10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="U10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="W10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="X10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Y10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Z10">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11">
-        <v>16.03</v>
-      </c>
-      <c r="C11">
-        <v>16.03</v>
-      </c>
-      <c r="D11">
-        <v>16.03</v>
-      </c>
-      <c r="E11">
-        <v>16.03</v>
-      </c>
-      <c r="F11">
-        <v>16.03</v>
-      </c>
-      <c r="G11">
-        <v>16.03</v>
-      </c>
-      <c r="H11">
-        <v>16.03</v>
-      </c>
-      <c r="I11">
-        <v>16.03</v>
-      </c>
-      <c r="J11">
-        <v>16.03</v>
-      </c>
-      <c r="K11">
-        <v>16.03</v>
-      </c>
-      <c r="L11">
-        <v>16.03</v>
-      </c>
-      <c r="M11">
-        <v>16.03</v>
-      </c>
-      <c r="N11">
-        <v>16.03</v>
-      </c>
-      <c r="O11">
-        <v>16.03</v>
-      </c>
-      <c r="P11">
-        <v>16.03</v>
-      </c>
-      <c r="Q11">
-        <v>16.03</v>
-      </c>
-      <c r="R11">
-        <v>16.03</v>
-      </c>
-      <c r="S11">
-        <v>16.03</v>
-      </c>
-      <c r="T11">
-        <v>16.03</v>
-      </c>
-      <c r="U11">
-        <v>16.03</v>
-      </c>
-      <c r="V11">
-        <v>16.03</v>
-      </c>
-      <c r="W11">
-        <v>16.03</v>
-      </c>
-      <c r="X11">
-        <v>16.03</v>
-      </c>
-      <c r="Y11">
-        <v>16.03</v>
-      </c>
-      <c r="Z11">
-        <v>16.03</v>
-      </c>
-      <c r="AA11">
-        <v>16.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <v>15.9</v>
-      </c>
-      <c r="C12">
-        <v>15.9</v>
-      </c>
-      <c r="D12">
-        <v>15.9</v>
-      </c>
-      <c r="E12">
-        <v>15.9</v>
-      </c>
-      <c r="F12">
-        <v>15.9</v>
-      </c>
-      <c r="G12">
-        <v>15.9</v>
-      </c>
-      <c r="H12">
-        <v>15.9</v>
-      </c>
-      <c r="I12">
-        <v>15.9</v>
-      </c>
-      <c r="J12">
-        <v>15.9</v>
-      </c>
-      <c r="K12">
-        <v>15.9</v>
-      </c>
-      <c r="L12">
-        <v>15.9</v>
-      </c>
-      <c r="M12">
-        <v>15.9</v>
-      </c>
-      <c r="N12">
-        <v>15.9</v>
-      </c>
-      <c r="O12">
-        <v>15.9</v>
-      </c>
-      <c r="P12">
-        <v>15.9</v>
-      </c>
-      <c r="Q12">
-        <v>15.9</v>
-      </c>
-      <c r="R12">
-        <v>15.9</v>
-      </c>
-      <c r="S12">
-        <v>15.9</v>
-      </c>
-      <c r="T12">
-        <v>15.9</v>
-      </c>
-      <c r="U12">
-        <v>15.9</v>
-      </c>
-      <c r="V12">
-        <v>15.9</v>
-      </c>
-      <c r="W12">
-        <v>15.9</v>
-      </c>
-      <c r="X12">
-        <v>15.9</v>
-      </c>
-      <c r="Y12">
-        <v>15.9</v>
-      </c>
-      <c r="Z12">
-        <v>15.9</v>
-      </c>
-      <c r="AA12">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13">
-        <v>15.91</v>
-      </c>
-      <c r="C13">
-        <v>15.91</v>
-      </c>
-      <c r="D13">
-        <v>15.91</v>
-      </c>
-      <c r="E13">
-        <v>15.91</v>
-      </c>
-      <c r="F13">
-        <v>15.91</v>
-      </c>
-      <c r="G13">
-        <v>15.91</v>
-      </c>
-      <c r="H13">
-        <v>15.91</v>
-      </c>
-      <c r="I13">
-        <v>15.91</v>
-      </c>
-      <c r="J13">
-        <v>15.91</v>
-      </c>
-      <c r="K13">
-        <v>15.91</v>
-      </c>
-      <c r="L13">
-        <v>15.91</v>
-      </c>
-      <c r="M13">
-        <v>15.91</v>
-      </c>
-      <c r="N13">
-        <v>15.91</v>
-      </c>
-      <c r="O13">
-        <v>15.91</v>
-      </c>
-      <c r="P13">
-        <v>15.91</v>
-      </c>
-      <c r="Q13">
-        <v>15.91</v>
-      </c>
-      <c r="R13">
-        <v>15.91</v>
-      </c>
-      <c r="S13">
-        <v>15.91</v>
-      </c>
-      <c r="T13">
-        <v>15.91</v>
-      </c>
-      <c r="U13">
-        <v>15.91</v>
-      </c>
-      <c r="V13">
-        <v>15.91</v>
-      </c>
-      <c r="W13">
-        <v>15.91</v>
-      </c>
-      <c r="X13">
-        <v>15.91</v>
-      </c>
-      <c r="Y13">
-        <v>15.91</v>
-      </c>
-      <c r="Z13">
-        <v>15.91</v>
-      </c>
-      <c r="AA13">
-        <v>15.91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>6</v>
-      </c>
-      <c r="O14">
-        <v>6</v>
-      </c>
-      <c r="P14">
-        <v>6</v>
-      </c>
-      <c r="Q14">
-        <v>6</v>
-      </c>
-      <c r="R14">
-        <v>6</v>
-      </c>
-      <c r="S14">
-        <v>6</v>
-      </c>
-      <c r="T14">
-        <v>6</v>
-      </c>
-      <c r="U14">
-        <v>6</v>
-      </c>
-      <c r="V14">
-        <v>6</v>
-      </c>
-      <c r="W14">
-        <v>6</v>
-      </c>
-      <c r="X14">
-        <v>6</v>
-      </c>
-      <c r="Y14">
-        <v>6</v>
-      </c>
-      <c r="Z14">
-        <v>6</v>
-      </c>
-      <c r="AA14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15">
-        <v>6.01</v>
-      </c>
-      <c r="C15">
-        <v>6.01</v>
-      </c>
-      <c r="D15">
-        <v>6.01</v>
-      </c>
-      <c r="E15">
-        <v>6.01</v>
-      </c>
-      <c r="F15">
-        <v>6.01</v>
-      </c>
-      <c r="G15">
-        <v>6.01</v>
-      </c>
-      <c r="H15">
-        <v>6.01</v>
-      </c>
-      <c r="I15">
-        <v>6.01</v>
-      </c>
-      <c r="J15">
-        <v>6.01</v>
-      </c>
-      <c r="K15">
-        <v>6.01</v>
-      </c>
-      <c r="L15">
-        <v>6.01</v>
-      </c>
-      <c r="M15">
-        <v>6.01</v>
-      </c>
-      <c r="N15">
-        <v>6.01</v>
-      </c>
-      <c r="O15">
-        <v>6.01</v>
-      </c>
-      <c r="P15">
-        <v>6.01</v>
-      </c>
-      <c r="Q15">
-        <v>6.01</v>
-      </c>
-      <c r="R15">
-        <v>6.01</v>
-      </c>
-      <c r="S15">
-        <v>6.01</v>
-      </c>
-      <c r="T15">
-        <v>6.01</v>
-      </c>
-      <c r="U15">
-        <v>6.01</v>
-      </c>
-      <c r="V15">
-        <v>6.01</v>
-      </c>
-      <c r="W15">
-        <v>6.01</v>
-      </c>
-      <c r="X15">
-        <v>6.01</v>
-      </c>
-      <c r="Y15">
-        <v>6.01</v>
-      </c>
-      <c r="Z15">
-        <v>6.01</v>
-      </c>
-      <c r="AA15">
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="20"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
-  <dimension ref="A1:AA15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="I2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="J2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="K2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="M2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="N2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="P2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="R2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="S2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="V2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="W2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="X2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="Z2" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AA2" s="18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="H3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="J3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="O3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="P3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="R3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="S3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="T3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="U3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="V3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="W3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="X3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="K4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="M4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="N4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="O4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="P4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="R4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="S4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="T4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="V4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="W4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="X4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Z4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="AA4" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="C5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="E5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="K5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="M5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="N5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="O5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="P5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Q5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="R5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="S5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="T5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="U5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="V5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="W5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="X5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="H6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="K6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="M6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="N6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="O6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="P6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="S6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="T6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="U6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="V6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="W6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="X6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="Y6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="I7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="M7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="N7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="R7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="S7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="T7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="U7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="V7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="W7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="X7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="C8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="D8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="F8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="G8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="J8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="K8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="M8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="N8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="O8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="P8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="R8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="S8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="T8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="U8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="V8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="W8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="X8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="Y8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="Z8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="AA8" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="G9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="I9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="L9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="N9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="O9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="P9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="R9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="S9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="T9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="U9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="V9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="W9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="X9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>0.26</v>
-      </c>
-      <c r="AA9" s="18">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="F10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="J10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="K10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="L10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="M10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="N10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="O10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="P10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="Q10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="R10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="S10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="T10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="U10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="V10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="W10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="X10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="Y10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>0.192</v>
-      </c>
-      <c r="AA10" s="18">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="C11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="F11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="I11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="J11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="K11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="L11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="M11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="N11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="O11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="P11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Q11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="R11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="S11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="T11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="U11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="V11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="W11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="X11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Y11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="Z11" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="AA11" s="18">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="18">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18">
-        <v>0</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0</v>
-      </c>
-      <c r="L12" s="18">
-        <v>0</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0</v>
-      </c>
-      <c r="N12" s="18">
-        <v>0</v>
-      </c>
-      <c r="O12" s="18">
-        <v>0</v>
-      </c>
-      <c r="P12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>0</v>
-      </c>
-      <c r="R12" s="18">
-        <v>0</v>
-      </c>
-      <c r="S12" s="18">
-        <v>0</v>
-      </c>
-      <c r="T12" s="18">
-        <v>0</v>
-      </c>
-      <c r="U12" s="18">
-        <v>0</v>
-      </c>
-      <c r="V12" s="18">
-        <v>0</v>
-      </c>
-      <c r="W12" s="18">
-        <v>0</v>
-      </c>
-      <c r="X12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="18">
-        <v>0</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <v>0</v>
-      </c>
-      <c r="M13" s="18">
-        <v>0</v>
-      </c>
-      <c r="N13" s="18">
-        <v>0</v>
-      </c>
-      <c r="O13" s="18">
-        <v>0</v>
-      </c>
-      <c r="P13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>0</v>
-      </c>
-      <c r="R13" s="18">
-        <v>0</v>
-      </c>
-      <c r="S13" s="18">
-        <v>0</v>
-      </c>
-      <c r="T13" s="18">
-        <v>0</v>
-      </c>
-      <c r="U13" s="18">
-        <v>0</v>
-      </c>
-      <c r="V13" s="18">
-        <v>0</v>
-      </c>
-      <c r="W13" s="18">
-        <v>0</v>
-      </c>
-      <c r="X13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="18">
-        <v>0</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0</v>
-      </c>
-      <c r="N14" s="18">
-        <v>0</v>
-      </c>
-      <c r="O14" s="18">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>0</v>
-      </c>
-      <c r="R14" s="18">
-        <v>0</v>
-      </c>
-      <c r="S14" s="18">
-        <v>0</v>
-      </c>
-      <c r="T14" s="18">
-        <v>0</v>
-      </c>
-      <c r="U14" s="18">
-        <v>0</v>
-      </c>
-      <c r="V14" s="18">
-        <v>0</v>
-      </c>
-      <c r="W14" s="18">
-        <v>0</v>
-      </c>
-      <c r="X14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="18">
-        <v>0</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0</v>
-      </c>
-      <c r="D15" s="18">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
-        <v>0</v>
-      </c>
-      <c r="K15" s="18">
-        <v>0</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <v>0</v>
-      </c>
-      <c r="N15" s="18">
-        <v>0</v>
-      </c>
-      <c r="O15" s="18">
-        <v>0</v>
-      </c>
-      <c r="P15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="18">
-        <v>0</v>
-      </c>
-      <c r="R15" s="18">
-        <v>0</v>
-      </c>
-      <c r="S15" s="18">
-        <v>0</v>
-      </c>
-      <c r="T15" s="18">
-        <v>0</v>
-      </c>
-      <c r="U15" s="18">
-        <v>0</v>
-      </c>
-      <c r="V15" s="18">
-        <v>0</v>
-      </c>
-      <c r="W15" s="18">
-        <v>0</v>
-      </c>
-      <c r="X15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="18">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6647,7 +5192,7 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7082,7 +5627,7 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7857,7 +6402,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8624,7 +7169,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8762,10 +7307,10 @@
         <v>51</v>
       </c>
       <c r="C8" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="13">
         <v>2000</v>
@@ -8779,10 +7324,10 @@
         <v>76</v>
       </c>
       <c r="C9" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="13">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="13">
         <v>2000</v>
@@ -8809,7 +7354,7 @@
   <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9962,7 +8507,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10099,11 +8644,2806 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="30">
+        <f>14.06*1.29</f>
+        <v>18.1374</v>
+      </c>
+      <c r="C2" s="30">
+        <f t="shared" ref="C2:AA2" si="0">14.06*1.29</f>
+        <v>18.1374</v>
+      </c>
+      <c r="D2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="E2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="F2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="G2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="H2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="I2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="J2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="K2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="L2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="M2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="N2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="O2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="P2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="Q2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="R2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="S2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="T2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="U2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="V2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="W2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="X2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="Y2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="Z2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+      <c r="AA2" s="30">
+        <f t="shared" si="0"/>
+        <v>18.1374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="30">
+        <f>16.4*1.29</f>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="C3" s="30">
+        <f t="shared" ref="C3:R7" si="1">16.4*1.29</f>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="D3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="E3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="F3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="G3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="H3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="I3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="J3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="K3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="L3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="M3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="N3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="O3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="P3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Q3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="R3" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="S3" s="30">
+        <f t="shared" ref="S3:AA7" si="2">16.4*1.29</f>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="T3" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="U3" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="V3" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="W3" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="X3" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Y3" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Z3" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="AA3" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="30">
+        <f t="shared" ref="B4:Q9" si="3">16.4*1.29</f>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="C4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="D4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="E4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="F4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="G4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="H4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="I4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="J4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="K4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="L4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="M4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="N4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="O4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="P4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Q4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="R4" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="S4" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="T4" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="U4" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="V4" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="W4" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="X4" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Y4" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Z4" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="AA4" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="C5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="D5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="E5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="F5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="J5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="K5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="L5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="M5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="N5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="O5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="P5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Q5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="R5" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="S5" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="T5" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="U5" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="V5" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="W5" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="X5" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Y5" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Z5" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="AA5" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="C6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="D6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="E6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="F6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="G6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="J6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="K6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="L6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="M6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="N6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="O6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="P6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Q6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="R6" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="S6" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="T6" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="U6" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="V6" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="W6" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="X6" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Y6" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Z6" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="AA6" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="C7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="D7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="E7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="J7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="K7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="L7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="M7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="N7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="O7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="P7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Q7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="R7" s="30">
+        <f t="shared" si="1"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="S7" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="T7" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="U7" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="V7" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="W7" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="X7" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Y7" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Z7" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="AA7" s="30">
+        <f t="shared" si="2"/>
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="30">
+        <f>14.06*1.29</f>
+        <v>18.1374</v>
+      </c>
+      <c r="C8" s="30">
+        <f t="shared" ref="C8:AA8" si="4">14.06*1.29</f>
+        <v>18.1374</v>
+      </c>
+      <c r="D8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="E8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="J8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="L8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="M8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="N8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="O8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="P8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="Q8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="R8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="S8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="T8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="U8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="V8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="W8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="X8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="Y8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="Z8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+      <c r="AA8" s="30">
+        <f t="shared" si="4"/>
+        <v>18.1374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="C9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="E9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="H9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="I9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="J9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="K9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="L9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="M9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="N9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="O9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="P9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Q9" s="30">
+        <f t="shared" si="3"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="R9" s="30">
+        <f t="shared" ref="R9:AA9" si="5">16.4*1.29</f>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="S9" s="30">
+        <f t="shared" si="5"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="T9" s="30">
+        <f t="shared" si="5"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="U9" s="30">
+        <f t="shared" si="5"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="V9" s="30">
+        <f t="shared" si="5"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="W9" s="30">
+        <f t="shared" si="5"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="X9" s="30">
+        <f t="shared" si="5"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Y9" s="30">
+        <f t="shared" si="5"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Z9" s="30">
+        <f t="shared" si="5"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="AA9" s="30">
+        <f t="shared" si="5"/>
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="30">
+        <f t="shared" ref="B10:AA11" si="6">16.4*1.29</f>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="C10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="D10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="E10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="F10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="H10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="I10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="J10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="K10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="L10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="M10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="N10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="O10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="P10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Q10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="R10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="S10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="T10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="U10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="V10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="W10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="X10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Y10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Z10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="AA10" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="C11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="D11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="H11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="I11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="J11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="K11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="L11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="M11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="N11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="O11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="P11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Q11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="R11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="S11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="T11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="U11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="V11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="W11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="X11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Y11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="Z11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+      <c r="AA11" s="30">
+        <f t="shared" si="6"/>
+        <v>21.155999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="C12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="D12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="E12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="F12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="G12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="H12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="I12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="J12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="K12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="L12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="M12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="N12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="O12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="P12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="R12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="S12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="T12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="U12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="V12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="W12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="X12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="Y12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="Z12" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="AA12" s="30">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="C13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="D13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="E13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="F13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="G13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="H13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="I13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="J13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="K13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="L13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="M13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="N13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="O13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="P13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="R13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="S13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="T13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="U13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="V13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="W13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="X13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="Y13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="Z13" s="30">
+        <v>15.91</v>
+      </c>
+      <c r="AA13" s="30">
+        <v>15.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="30">
+        <v>6</v>
+      </c>
+      <c r="C14" s="30">
+        <v>6</v>
+      </c>
+      <c r="D14" s="30">
+        <v>6</v>
+      </c>
+      <c r="E14" s="30">
+        <v>6</v>
+      </c>
+      <c r="F14" s="30">
+        <v>6</v>
+      </c>
+      <c r="G14" s="30">
+        <v>6</v>
+      </c>
+      <c r="H14" s="30">
+        <v>6</v>
+      </c>
+      <c r="I14" s="30">
+        <v>6</v>
+      </c>
+      <c r="J14" s="30">
+        <v>6</v>
+      </c>
+      <c r="K14" s="30">
+        <v>6</v>
+      </c>
+      <c r="L14" s="30">
+        <v>6</v>
+      </c>
+      <c r="M14" s="30">
+        <v>6</v>
+      </c>
+      <c r="N14" s="30">
+        <v>6</v>
+      </c>
+      <c r="O14" s="30">
+        <v>6</v>
+      </c>
+      <c r="P14" s="30">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>6</v>
+      </c>
+      <c r="R14" s="30">
+        <v>6</v>
+      </c>
+      <c r="S14" s="30">
+        <v>6</v>
+      </c>
+      <c r="T14" s="30">
+        <v>6</v>
+      </c>
+      <c r="U14" s="30">
+        <v>6</v>
+      </c>
+      <c r="V14" s="30">
+        <v>6</v>
+      </c>
+      <c r="W14" s="30">
+        <v>6</v>
+      </c>
+      <c r="X14" s="30">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="30">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="30">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="C15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="D15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="E15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="F15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="G15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="H15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="I15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="J15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="K15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="L15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="M15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="N15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="O15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="P15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="R15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="S15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="T15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="U15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="V15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="W15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="X15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>6.01</v>
+      </c>
+      <c r="AA15" s="30">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
+  <dimension ref="A1:AA15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="P2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="T2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="V2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="W2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="X2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="Y2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="J3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="P3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="R3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="S3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="T3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="U3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="V3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="W3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="N4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="P4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="R4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="T4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="U4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="V4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="X4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Y4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AA4" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="N5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="O5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="P5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="R5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="S5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="T5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="U5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="V5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="W5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="X5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Y5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AA5" s="18">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="R6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="S6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="T6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="V6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="W6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="X6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="T7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="U7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="V7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="W7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="X7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="C8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="P8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="R8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="T8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="V8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="W8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="X8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="R9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="S9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="T9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="U9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="V9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="W9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="X9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>0.26</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="P10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="R10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="S10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="T10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="U10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="V10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="W10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="X10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>0.192</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="J11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="O11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="R11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="S11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="T11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="U11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="V11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="W11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="X11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0</v>
+      </c>
+      <c r="T12" s="18">
+        <v>0</v>
+      </c>
+      <c r="U12" s="18">
+        <v>0</v>
+      </c>
+      <c r="V12" s="18">
+        <v>0</v>
+      </c>
+      <c r="W12" s="18">
+        <v>0</v>
+      </c>
+      <c r="X12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>0</v>
+      </c>
+      <c r="R13" s="18">
+        <v>0</v>
+      </c>
+      <c r="S13" s="18">
+        <v>0</v>
+      </c>
+      <c r="T13" s="18">
+        <v>0</v>
+      </c>
+      <c r="U13" s="18">
+        <v>0</v>
+      </c>
+      <c r="V13" s="18">
+        <v>0</v>
+      </c>
+      <c r="W13" s="18">
+        <v>0</v>
+      </c>
+      <c r="X13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
+      <c r="R14" s="18">
+        <v>0</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0</v>
+      </c>
+      <c r="T14" s="18">
+        <v>0</v>
+      </c>
+      <c r="U14" s="18">
+        <v>0</v>
+      </c>
+      <c r="V14" s="18">
+        <v>0</v>
+      </c>
+      <c r="W14" s="18">
+        <v>0</v>
+      </c>
+      <c r="X14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0</v>
+      </c>
+      <c r="P15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>0</v>
+      </c>
+      <c r="R15" s="18">
+        <v>0</v>
+      </c>
+      <c r="S15" s="18">
+        <v>0</v>
+      </c>
+      <c r="T15" s="18">
+        <v>0</v>
+      </c>
+      <c r="U15" s="18">
+        <v>0</v>
+      </c>
+      <c r="V15" s="18">
+        <v>0</v>
+      </c>
+      <c r="W15" s="18">
+        <v>0</v>
+      </c>
+      <c r="X15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10568,12 +11908,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF08FAA-2FE8-334E-925F-993A56983EE6}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12027,12 +13367,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12313,84 +13653,64 @@
         <v>1100000</v>
       </c>
       <c r="H4" s="16">
-        <f>G4*0.98</f>
-        <v>1078000</v>
+        <v>1100000</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" ref="I4:AA4" si="0">H4*0.98</f>
-        <v>1056440</v>
+        <v>1100000</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>1035311.2</v>
+        <v>1100000</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>1014604.9759999999</v>
+        <v>1100000</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
-        <v>994312.87647999986</v>
+        <v>1100000</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" si="0"/>
-        <v>974426.6189503998</v>
+        <v>1100000</v>
       </c>
       <c r="N4" s="16">
-        <f t="shared" si="0"/>
-        <v>954938.08657139179</v>
+        <v>1100000</v>
       </c>
       <c r="O4" s="16">
-        <f t="shared" si="0"/>
-        <v>935839.32483996393</v>
+        <v>1100000</v>
       </c>
       <c r="P4" s="16">
-        <f t="shared" si="0"/>
-        <v>917122.5383431646</v>
+        <v>1100000</v>
       </c>
       <c r="Q4" s="16">
-        <f t="shared" si="0"/>
-        <v>898780.0875763013</v>
+        <v>1100000</v>
       </c>
       <c r="R4" s="16">
-        <f t="shared" si="0"/>
-        <v>880804.4858247753</v>
+        <v>1100000</v>
       </c>
       <c r="S4" s="16">
-        <f t="shared" si="0"/>
-        <v>863188.39610827982</v>
+        <v>1100000</v>
       </c>
       <c r="T4" s="16">
-        <f t="shared" si="0"/>
-        <v>845924.62818611425</v>
+        <v>1100000</v>
       </c>
       <c r="U4" s="16">
-        <f t="shared" si="0"/>
-        <v>829006.13562239194</v>
+        <v>1100000</v>
       </c>
       <c r="V4" s="16">
-        <f t="shared" si="0"/>
-        <v>812426.01290994405</v>
+        <v>1100000</v>
       </c>
       <c r="W4" s="16">
-        <f t="shared" si="0"/>
-        <v>796177.49265174521</v>
+        <v>1100000</v>
       </c>
       <c r="X4" s="16">
-        <f t="shared" si="0"/>
-        <v>780253.94279871031</v>
+        <v>1100000</v>
       </c>
       <c r="Y4" s="16">
-        <f t="shared" si="0"/>
-        <v>764648.86394273606</v>
+        <v>1100000</v>
       </c>
       <c r="Z4" s="16">
-        <f t="shared" si="0"/>
-        <v>749355.88666388136</v>
+        <v>1100000</v>
       </c>
       <c r="AA4" s="16">
-        <f t="shared" si="0"/>
-        <v>734368.76893060375</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -12398,82 +13718,82 @@
         <v>44</v>
       </c>
       <c r="B5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="C5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="D5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="E5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="F5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="G5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="H5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="I5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="J5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="K5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="L5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="M5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="N5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="O5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="P5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="Q5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="R5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="S5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="T5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="U5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="V5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="W5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="X5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="Y5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="Z5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
       <c r="AA5" s="16">
-        <v>400000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -12586,1083 +13906,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="16">
-        <f>capex!B2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="C2" s="16">
-        <f>capex!C2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="D2" s="16">
-        <f>capex!D2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="E2" s="16">
-        <f>capex!E2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="F2" s="16">
-        <f>capex!F2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="G2" s="16">
-        <f>capex!G2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="H2" s="16">
-        <f>capex!H2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="I2" s="16">
-        <f>capex!I2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="J2" s="16">
-        <f>capex!J2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="K2" s="16">
-        <f>capex!K2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="L2" s="16">
-        <f>capex!L2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="M2" s="16">
-        <f>capex!M2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="N2" s="16">
-        <f>capex!N2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="O2" s="16">
-        <f>capex!O2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="P2" s="16">
-        <f>capex!P2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="Q2" s="16">
-        <f>capex!Q2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="R2" s="16">
-        <f>capex!R2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="S2" s="16">
-        <f>capex!S2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="T2" s="16">
-        <f>capex!T2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="U2" s="16">
-        <f>capex!U2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="V2" s="16">
-        <f>capex!V2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="W2" s="16">
-        <f>capex!W2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="X2" s="16">
-        <f>capex!X2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="Y2" s="16">
-        <f>capex!Y2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="Z2" s="16">
-        <f>capex!Z2*0.5</f>
-        <v>250350</v>
-      </c>
-      <c r="AA2" s="16">
-        <f>capex!AA2*0.5</f>
-        <v>250350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="16">
-        <f>capex!B3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="C3" s="16">
-        <f>capex!C3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="D3" s="16">
-        <f>capex!D3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="E3" s="16">
-        <f>capex!E3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="F3" s="16">
-        <f>capex!F3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="G3" s="16">
-        <f>capex!G3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="H3" s="16">
-        <f>capex!H3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="I3" s="16">
-        <f>capex!I3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="J3" s="16">
-        <f>capex!J3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="K3" s="16">
-        <f>capex!K3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="L3" s="16">
-        <f>capex!L3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="M3" s="16">
-        <f>capex!M3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="N3" s="16">
-        <f>capex!N3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="O3" s="16">
-        <f>capex!O3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="P3" s="16">
-        <f>capex!P3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="Q3" s="16">
-        <f>capex!Q3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="R3" s="16">
-        <f>capex!R3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="S3" s="16">
-        <f>capex!S3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="T3" s="16">
-        <f>capex!T3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="U3" s="16">
-        <f>capex!U3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="V3" s="16">
-        <f>capex!V3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="W3" s="16">
-        <f>capex!W3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="X3" s="16">
-        <f>capex!X3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="Y3" s="16">
-        <f>capex!Y3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="Z3" s="16">
-        <f>capex!Z3*0.5</f>
-        <v>212797.5</v>
-      </c>
-      <c r="AA3" s="16">
-        <f>capex!AA3*0.5</f>
-        <v>212797.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="16">
-        <f>capex!B4*0.5</f>
-        <v>550000</v>
-      </c>
-      <c r="C4" s="16">
-        <f>capex!C4*0.5</f>
-        <v>550000</v>
-      </c>
-      <c r="D4" s="16">
-        <f>capex!D4*0.5</f>
-        <v>550000</v>
-      </c>
-      <c r="E4" s="16">
-        <f>capex!E4*0.5</f>
-        <v>550000</v>
-      </c>
-      <c r="F4" s="16">
-        <f>capex!F4*0.5</f>
-        <v>550000</v>
-      </c>
-      <c r="G4" s="16">
-        <f>capex!G4*0.5</f>
-        <v>550000</v>
-      </c>
-      <c r="H4" s="16">
-        <f>capex!H4*0.5</f>
-        <v>539000</v>
-      </c>
-      <c r="I4" s="16">
-        <f>capex!I4*0.5</f>
-        <v>528220</v>
-      </c>
-      <c r="J4" s="16">
-        <f>capex!J4*0.5</f>
-        <v>517655.6</v>
-      </c>
-      <c r="K4" s="16">
-        <f>capex!K4*0.5</f>
-        <v>507302.48799999995</v>
-      </c>
-      <c r="L4" s="16">
-        <f>capex!L4*0.5</f>
-        <v>497156.43823999993</v>
-      </c>
-      <c r="M4" s="16">
-        <f>capex!M4*0.5</f>
-        <v>487213.3094751999</v>
-      </c>
-      <c r="N4" s="16">
-        <f>capex!N4*0.5</f>
-        <v>477469.04328569589</v>
-      </c>
-      <c r="O4" s="16">
-        <f>capex!O4*0.5</f>
-        <v>467919.66241998196</v>
-      </c>
-      <c r="P4" s="16">
-        <f>capex!P4*0.5</f>
-        <v>458561.2691715823</v>
-      </c>
-      <c r="Q4" s="16">
-        <f>capex!Q4*0.5</f>
-        <v>449390.04378815065</v>
-      </c>
-      <c r="R4" s="16">
-        <f>capex!R4*0.5</f>
-        <v>440402.24291238765</v>
-      </c>
-      <c r="S4" s="16">
-        <f>capex!S4*0.5</f>
-        <v>431594.19805413991</v>
-      </c>
-      <c r="T4" s="16">
-        <f>capex!T4*0.5</f>
-        <v>422962.31409305712</v>
-      </c>
-      <c r="U4" s="16">
-        <f>capex!U4*0.5</f>
-        <v>414503.06781119597</v>
-      </c>
-      <c r="V4" s="16">
-        <f>capex!V4*0.5</f>
-        <v>406213.00645497203</v>
-      </c>
-      <c r="W4" s="16">
-        <f>capex!W4*0.5</f>
-        <v>398088.74632587261</v>
-      </c>
-      <c r="X4" s="16">
-        <f>capex!X4*0.5</f>
-        <v>390126.97139935516</v>
-      </c>
-      <c r="Y4" s="16">
-        <f>capex!Y4*0.5</f>
-        <v>382324.43197136803</v>
-      </c>
-      <c r="Z4" s="16">
-        <f>capex!Z4*0.5</f>
-        <v>374677.94333194068</v>
-      </c>
-      <c r="AA4" s="16">
-        <f>capex!AA4*0.5</f>
-        <v>367184.38446530188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="16">
-        <f>capex!B5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="C5" s="16">
-        <f>capex!C5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="D5" s="16">
-        <f>capex!D5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="E5" s="16">
-        <f>capex!E5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="F5" s="16">
-        <f>capex!F5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="G5" s="16">
-        <f>capex!G5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="H5" s="16">
-        <f>capex!H5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="I5" s="16">
-        <f>capex!I5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="J5" s="16">
-        <f>capex!J5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="K5" s="16">
-        <f>capex!K5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="L5" s="16">
-        <f>capex!L5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="M5" s="16">
-        <f>capex!M5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="N5" s="16">
-        <f>capex!N5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="O5" s="16">
-        <f>capex!O5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="P5" s="16">
-        <f>capex!P5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="Q5" s="16">
-        <f>capex!Q5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="R5" s="16">
-        <f>capex!R5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="S5" s="16">
-        <f>capex!S5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="T5" s="16">
-        <f>capex!T5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="U5" s="16">
-        <f>capex!U5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="V5" s="16">
-        <f>capex!V5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="W5" s="16">
-        <f>capex!W5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="X5" s="16">
-        <f>capex!X5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="Y5" s="16">
-        <f>capex!Y5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="Z5" s="16">
-        <f>capex!Z5*0.5</f>
-        <v>200000</v>
-      </c>
-      <c r="AA5" s="16">
-        <f>capex!AA5*0.5</f>
-        <v>200000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18CEE6-4CB2-4E28-86E1-E84E657A73A8}">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="16">
-        <f>capex!B2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="C2" s="16">
-        <f>capex!C2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="D2" s="16">
-        <f>capex!D2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="E2" s="16">
-        <f>capex!E2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="F2" s="16">
-        <f>capex!F2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="G2" s="16">
-        <f>capex!G2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="H2" s="16">
-        <f>capex!H2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="I2" s="16">
-        <f>capex!I2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="J2" s="16">
-        <f>capex!J2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="K2" s="16">
-        <f>capex!K2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="L2" s="16">
-        <f>capex!L2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="M2" s="16">
-        <f>capex!M2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="N2" s="16">
-        <f>capex!N2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="O2" s="16">
-        <f>capex!O2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="P2" s="16">
-        <f>capex!P2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="Q2" s="16">
-        <f>capex!Q2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="R2" s="16">
-        <f>capex!R2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="S2" s="16">
-        <f>capex!S2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="T2" s="16">
-        <f>capex!T2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="U2" s="16">
-        <f>capex!U2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="V2" s="16">
-        <f>capex!V2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="W2" s="16">
-        <f>capex!W2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="X2" s="16">
-        <f>capex!X2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="Y2" s="16">
-        <f>capex!Y2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="Z2" s="16">
-        <f>capex!Z2*0.3</f>
-        <v>150210</v>
-      </c>
-      <c r="AA2" s="16">
-        <f>capex!AA2*0.3</f>
-        <v>150210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="16">
-        <f>capex!B3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="C3" s="16">
-        <f>capex!C3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="D3" s="16">
-        <f>capex!D3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="E3" s="16">
-        <f>capex!E3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="F3" s="16">
-        <f>capex!F3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="G3" s="16">
-        <f>capex!G3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="H3" s="16">
-        <f>capex!H3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="I3" s="16">
-        <f>capex!I3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="J3" s="16">
-        <f>capex!J3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="K3" s="16">
-        <f>capex!K3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="L3" s="16">
-        <f>capex!L3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="M3" s="16">
-        <f>capex!M3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="N3" s="16">
-        <f>capex!N3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="O3" s="16">
-        <f>capex!O3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="P3" s="16">
-        <f>capex!P3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="Q3" s="16">
-        <f>capex!Q3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="R3" s="16">
-        <f>capex!R3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="S3" s="16">
-        <f>capex!S3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="T3" s="16">
-        <f>capex!T3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="U3" s="16">
-        <f>capex!U3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="V3" s="16">
-        <f>capex!V3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="W3" s="16">
-        <f>capex!W3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="X3" s="16">
-        <f>capex!X3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="Y3" s="16">
-        <f>capex!Y3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="Z3" s="16">
-        <f>capex!Z3*0.3</f>
-        <v>127678.5</v>
-      </c>
-      <c r="AA3" s="16">
-        <f>capex!AA3*0.3</f>
-        <v>127678.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="16">
-        <f>capex!B4*0.3</f>
-        <v>330000</v>
-      </c>
-      <c r="C4" s="16">
-        <f>capex!C4*0.3</f>
-        <v>330000</v>
-      </c>
-      <c r="D4" s="16">
-        <f>capex!D4*0.3</f>
-        <v>330000</v>
-      </c>
-      <c r="E4" s="16">
-        <f>capex!E4*0.3</f>
-        <v>330000</v>
-      </c>
-      <c r="F4" s="16">
-        <f>capex!F4*0.3</f>
-        <v>330000</v>
-      </c>
-      <c r="G4" s="16">
-        <f>capex!G4*0.3</f>
-        <v>330000</v>
-      </c>
-      <c r="H4" s="16">
-        <f>capex!H4*0.3</f>
-        <v>323400</v>
-      </c>
-      <c r="I4" s="16">
-        <f>capex!I4*0.3</f>
-        <v>316932</v>
-      </c>
-      <c r="J4" s="16">
-        <f>capex!J4*0.3</f>
-        <v>310593.36</v>
-      </c>
-      <c r="K4" s="16">
-        <f>capex!K4*0.3</f>
-        <v>304381.49279999995</v>
-      </c>
-      <c r="L4" s="16">
-        <f>capex!L4*0.3</f>
-        <v>298293.86294399993</v>
-      </c>
-      <c r="M4" s="16">
-        <f>capex!M4*0.3</f>
-        <v>292327.98568511993</v>
-      </c>
-      <c r="N4" s="16">
-        <f>capex!N4*0.3</f>
-        <v>286481.42597141751</v>
-      </c>
-      <c r="O4" s="16">
-        <f>capex!O4*0.3</f>
-        <v>280751.79745198914</v>
-      </c>
-      <c r="P4" s="16">
-        <f>capex!P4*0.3</f>
-        <v>275136.76150294935</v>
-      </c>
-      <c r="Q4" s="16">
-        <f>capex!Q4*0.3</f>
-        <v>269634.02627289039</v>
-      </c>
-      <c r="R4" s="16">
-        <f>capex!R4*0.3</f>
-        <v>264241.34574743256</v>
-      </c>
-      <c r="S4" s="16">
-        <f>capex!S4*0.3</f>
-        <v>258956.51883248394</v>
-      </c>
-      <c r="T4" s="16">
-        <f>capex!T4*0.3</f>
-        <v>253777.38845583427</v>
-      </c>
-      <c r="U4" s="16">
-        <f>capex!U4*0.3</f>
-        <v>248701.84068671757</v>
-      </c>
-      <c r="V4" s="16">
-        <f>capex!V4*0.3</f>
-        <v>243727.8038729832</v>
-      </c>
-      <c r="W4" s="16">
-        <f>capex!W4*0.3</f>
-        <v>238853.24779552355</v>
-      </c>
-      <c r="X4" s="16">
-        <f>capex!X4*0.3</f>
-        <v>234076.18283961309</v>
-      </c>
-      <c r="Y4" s="16">
-        <f>capex!Y4*0.3</f>
-        <v>229394.65918282082</v>
-      </c>
-      <c r="Z4" s="16">
-        <f>capex!Z4*0.3</f>
-        <v>224806.7659991644</v>
-      </c>
-      <c r="AA4" s="16">
-        <f>capex!AA4*0.3</f>
-        <v>220310.63067918111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="16">
-        <f>capex!B5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="C5" s="16">
-        <f>capex!C5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="D5" s="16">
-        <f>capex!D5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="E5" s="16">
-        <f>capex!E5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="F5" s="16">
-        <f>capex!F5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="G5" s="16">
-        <f>capex!G5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="H5" s="16">
-        <f>capex!H5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="I5" s="16">
-        <f>capex!I5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="J5" s="16">
-        <f>capex!J5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="K5" s="16">
-        <f>capex!K5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="L5" s="16">
-        <f>capex!L5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="M5" s="16">
-        <f>capex!M5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="N5" s="16">
-        <f>capex!N5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="O5" s="16">
-        <f>capex!O5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="P5" s="16">
-        <f>capex!P5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="Q5" s="16">
-        <f>capex!Q5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="R5" s="16">
-        <f>capex!R5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="S5" s="16">
-        <f>capex!S5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="T5" s="16">
-        <f>capex!T5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="U5" s="16">
-        <f>capex!U5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="V5" s="16">
-        <f>capex!V5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="W5" s="16">
-        <f>capex!W5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="X5" s="16">
-        <f>capex!X5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="Y5" s="16">
-        <f>capex!Y5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="Z5" s="16">
-        <f>capex!Z5*0.3</f>
-        <v>120000</v>
-      </c>
-      <c r="AA5" s="16">
-        <f>capex!AA5*0.3</f>
-        <v>120000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D166E44-552C-B948-8B83-6A8380DAB7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D92F01-400A-E34F-8E64-A99B276CAE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" tabRatio="775" firstSheet="3" activeTab="14" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="775" firstSheet="4" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -934,7 +934,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2158,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2196,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
@@ -2213,7 +2213,7 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="D3" t="s">
         <v>85</v>
@@ -2230,7 +2230,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
@@ -2247,7 +2247,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
@@ -2643,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7169,7 +7169,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A9" sqref="A4:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8215,7 +8215,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="122" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8507,7 +8507,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8648,7 +8648,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10177,7 +10177,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11443,7 +11443,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11913,12 +11913,13 @@
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13334,7 +13335,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -13372,7 +13373,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AA5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/Steel Data Mar 10.xlsx
+++ b/database/Steel Data Mar 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D92F01-400A-E34F-8E64-A99B276CAE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B55854-FE91-9944-AAE9-1377CCE2EDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="775" firstSheet="4" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" tabRatio="775" activeTab="14" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -2158,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2643,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
